--- a/data/MPs_WP19.xlsx
+++ b/data/MPs_WP19.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Documents\Uni\RWTH\WS23\Master_project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krist\Documents\GitHub\Master_project_SDS\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3BBD7E-A05D-46D7-B7E1-06621DCFA177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4F5626-617C-4986-92F1-084442F65944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-107" yWindow="-107" windowWidth="20847" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10316" yWindow="0" windowWidth="10317" windowHeight="11606" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1927,6 +1927,9 @@
     <t>Ursula</t>
   </si>
   <si>
+    <t>Dr. Ursula Leyen</t>
+  </si>
+  <si>
     <t>Liebich</t>
   </si>
   <si>
@@ -5531,9 +5534,6 @@
   </si>
   <si>
     <t>Gereon Bollmann</t>
-  </si>
-  <si>
-    <t>Dr. Ursula von der Leyen</t>
   </si>
 </sst>
 </file>
@@ -5905,17 +5905,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H751"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A367" workbookViewId="0">
-      <selection activeCell="K732" sqref="K732"/>
+    <sheetView tabSelected="1" topLeftCell="A718" workbookViewId="0">
+      <selection activeCell="E728" sqref="E728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.59765625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="28" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
@@ -10945,7 +10941,7 @@
         <v>12</v>
       </c>
       <c r="F238" t="s">
-        <v>1837</v>
+        <v>635</v>
       </c>
       <c r="G238" s="3">
         <v>43032</v>
@@ -10959,13 +10955,13 @@
         <v>257</v>
       </c>
       <c r="B239" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C239" t="s">
         <v>294</v>
       </c>
       <c r="F239" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="G239" s="3">
         <v>43032</v>
@@ -10979,13 +10975,13 @@
         <v>258</v>
       </c>
       <c r="B240" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C240" t="s">
         <v>46</v>
       </c>
       <c r="F240" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="G240" s="3">
         <v>43032</v>
@@ -10999,7 +10995,7 @@
         <v>259</v>
       </c>
       <c r="B241" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C241" t="s">
         <v>180</v>
@@ -11011,7 +11007,7 @@
         <v>12</v>
       </c>
       <c r="F241" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="G241" s="3">
         <v>43032</v>
@@ -11025,13 +11021,13 @@
         <v>260</v>
       </c>
       <c r="B242" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C242" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="F242" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="G242" s="3">
         <v>43032</v>
@@ -11045,10 +11041,10 @@
         <v>261</v>
       </c>
       <c r="B243" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C243" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D243" t="s">
         <v>12</v>
@@ -11057,7 +11053,7 @@
         <v>12</v>
       </c>
       <c r="F243" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="G243" s="3">
         <v>43032</v>
@@ -11071,13 +11067,13 @@
         <v>262</v>
       </c>
       <c r="B244" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C244" t="s">
         <v>477</v>
       </c>
       <c r="F244" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G244" s="3">
         <v>43032</v>
@@ -11091,13 +11087,13 @@
         <v>263</v>
       </c>
       <c r="B245" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C245" t="s">
         <v>591</v>
       </c>
       <c r="F245" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="G245" s="3">
         <v>43032</v>
@@ -11111,13 +11107,13 @@
         <v>264</v>
       </c>
       <c r="B246" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C246" t="s">
         <v>93</v>
       </c>
       <c r="F246" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="G246" s="3">
         <v>43032</v>
@@ -11131,13 +11127,13 @@
         <v>265</v>
       </c>
       <c r="B247" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C247" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F247" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="G247" s="3">
         <v>43032</v>
@@ -11151,7 +11147,7 @@
         <v>266</v>
       </c>
       <c r="B248" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C248" t="s">
         <v>93</v>
@@ -11163,7 +11159,7 @@
         <v>12</v>
       </c>
       <c r="F248" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G248" s="3">
         <v>43032</v>
@@ -11177,13 +11173,13 @@
         <v>268</v>
       </c>
       <c r="B249" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C249" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F249" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G249" s="3">
         <v>43032</v>
@@ -11197,13 +11193,13 @@
         <v>269</v>
       </c>
       <c r="B250" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C250" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F250" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G250" s="3">
         <v>43032</v>
@@ -11217,13 +11213,13 @@
         <v>270</v>
       </c>
       <c r="B251" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C251" t="s">
         <v>322</v>
       </c>
       <c r="F251" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G251" s="3">
         <v>43032</v>
@@ -11237,10 +11233,10 @@
         <v>271</v>
       </c>
       <c r="B252" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C252" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D252" t="s">
         <v>12</v>
@@ -11249,7 +11245,7 @@
         <v>12</v>
       </c>
       <c r="F252" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G252" s="3">
         <v>43032</v>
@@ -11263,13 +11259,13 @@
         <v>272</v>
       </c>
       <c r="B253" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C253" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F253" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G253" s="3">
         <v>43032</v>
@@ -11283,13 +11279,13 @@
         <v>273</v>
       </c>
       <c r="B254" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C254" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F254" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G254" s="3">
         <v>43032</v>
@@ -11303,13 +11299,13 @@
         <v>274</v>
       </c>
       <c r="B255" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C255" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F255" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="G255" s="3">
         <v>43032</v>
@@ -11323,13 +11319,13 @@
         <v>277</v>
       </c>
       <c r="B256" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C256" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F256" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="G256" s="3">
         <v>43032</v>
@@ -11343,13 +11339,13 @@
         <v>278</v>
       </c>
       <c r="B257" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C257" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F257" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="G257" s="3">
         <v>43032</v>
@@ -11363,7 +11359,7 @@
         <v>280</v>
       </c>
       <c r="B258" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C258" t="s">
         <v>200</v>
@@ -11375,7 +11371,7 @@
         <v>12</v>
       </c>
       <c r="F258" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G258" s="3">
         <v>43032</v>
@@ -11389,7 +11385,7 @@
         <v>281</v>
       </c>
       <c r="B259" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C259" t="s">
         <v>143</v>
@@ -11401,7 +11397,7 @@
         <v>221</v>
       </c>
       <c r="F259" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="G259" s="3">
         <v>43032</v>
@@ -11415,13 +11411,13 @@
         <v>282</v>
       </c>
       <c r="B260" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C260" t="s">
         <v>93</v>
       </c>
       <c r="F260" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="G260" s="3">
         <v>43032</v>
@@ -11435,10 +11431,10 @@
         <v>283</v>
       </c>
       <c r="B261" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C261" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D261" t="s">
         <v>12</v>
@@ -11447,7 +11443,7 @@
         <v>12</v>
       </c>
       <c r="F261" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="G261" s="3">
         <v>43032</v>
@@ -11461,13 +11457,13 @@
         <v>284</v>
       </c>
       <c r="B262" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C262" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F262" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G262" s="3">
         <v>43032</v>
@@ -11481,13 +11477,13 @@
         <v>285</v>
       </c>
       <c r="B263" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C263" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F263" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="G263" s="3">
         <v>43032</v>
@@ -11501,13 +11497,13 @@
         <v>286</v>
       </c>
       <c r="B264" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C264" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F264" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="G264" s="3">
         <v>43032</v>
@@ -11521,13 +11517,13 @@
         <v>287</v>
       </c>
       <c r="B265" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C265" t="s">
         <v>200</v>
       </c>
       <c r="F265" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="G265" s="3">
         <v>43032</v>
@@ -11541,13 +11537,13 @@
         <v>288</v>
       </c>
       <c r="B266" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C266" t="s">
         <v>116</v>
       </c>
       <c r="F266" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="G266" s="3">
         <v>43032</v>
@@ -11561,13 +11557,13 @@
         <v>289</v>
       </c>
       <c r="B267" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C267" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F267" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G267" s="3">
         <v>43032</v>
@@ -11581,13 +11577,13 @@
         <v>290</v>
       </c>
       <c r="B268" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C268" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="F268" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="G268" s="3">
         <v>43032</v>
@@ -11601,13 +11597,13 @@
         <v>291</v>
       </c>
       <c r="B269" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C269" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="F269" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="G269" s="3">
         <v>43032</v>
@@ -11621,7 +11617,7 @@
         <v>292</v>
       </c>
       <c r="B270" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C270" t="s">
         <v>294</v>
@@ -11633,7 +11629,7 @@
         <v>12</v>
       </c>
       <c r="F270" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="G270" s="3">
         <v>43032</v>
@@ -11647,13 +11643,13 @@
         <v>293</v>
       </c>
       <c r="B271" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C271" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F271" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="G271" s="3">
         <v>43032</v>
@@ -11670,7 +11666,7 @@
         <v>45</v>
       </c>
       <c r="C272" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D272" t="s">
         <v>12</v>
@@ -11679,7 +11675,7 @@
         <v>12</v>
       </c>
       <c r="F272" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="G272" s="3">
         <v>43032</v>
@@ -11693,13 +11689,13 @@
         <v>295</v>
       </c>
       <c r="B273" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C273" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F273" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="G273" s="3">
         <v>43032</v>
@@ -11716,10 +11712,10 @@
         <v>324</v>
       </c>
       <c r="C274" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F274" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G274" s="3">
         <v>43032</v>
@@ -11733,13 +11729,13 @@
         <v>297</v>
       </c>
       <c r="B275" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C275" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F275" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="G275" s="3">
         <v>43032</v>
@@ -11753,13 +11749,13 @@
         <v>298</v>
       </c>
       <c r="B276" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C276" t="s">
         <v>294</v>
       </c>
       <c r="F276" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="G276" s="3">
         <v>43032</v>
@@ -11773,13 +11769,13 @@
         <v>299</v>
       </c>
       <c r="B277" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C277" t="s">
         <v>442</v>
       </c>
       <c r="F277" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="G277" s="3">
         <v>43032</v>
@@ -11793,13 +11789,13 @@
         <v>300</v>
       </c>
       <c r="B278" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C278" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F278" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G278" s="3">
         <v>43032</v>
@@ -11813,10 +11809,10 @@
         <v>301</v>
       </c>
       <c r="B279" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C279" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D279" t="s">
         <v>12</v>
@@ -11825,7 +11821,7 @@
         <v>221</v>
       </c>
       <c r="F279" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="G279" s="3">
         <v>43032</v>
@@ -11839,13 +11835,13 @@
         <v>302</v>
       </c>
       <c r="B280" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C280" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F280" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="G280" s="3">
         <v>43032</v>
@@ -11859,13 +11855,13 @@
         <v>305</v>
       </c>
       <c r="B281" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C281" t="s">
         <v>461</v>
       </c>
       <c r="F281" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="G281" s="3">
         <v>43032</v>
@@ -11882,10 +11878,10 @@
         <v>519</v>
       </c>
       <c r="C282" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F282" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="G282" s="3">
         <v>43032</v>
@@ -11899,13 +11895,13 @@
         <v>308</v>
       </c>
       <c r="B283" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C283" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F283" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="G283" s="3">
         <v>43032</v>
@@ -11919,13 +11915,13 @@
         <v>309</v>
       </c>
       <c r="B284" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C284" t="s">
         <v>289</v>
       </c>
       <c r="F284" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="G284" s="3">
         <v>43032</v>
@@ -11939,13 +11935,13 @@
         <v>310</v>
       </c>
       <c r="B285" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C285" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F285" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="G285" s="3">
         <v>43032</v>
@@ -11959,13 +11955,13 @@
         <v>311</v>
       </c>
       <c r="B286" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C286" t="s">
         <v>206</v>
       </c>
       <c r="F286" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="G286" s="3">
         <v>43032</v>
@@ -11979,7 +11975,7 @@
         <v>312</v>
       </c>
       <c r="B287" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C287" t="s">
         <v>8</v>
@@ -11991,7 +11987,7 @@
         <v>12</v>
       </c>
       <c r="F287" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G287" s="3">
         <v>43032</v>
@@ -12005,13 +12001,13 @@
         <v>313</v>
       </c>
       <c r="B288" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C288" t="s">
         <v>289</v>
       </c>
       <c r="F288" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="G288" s="3">
         <v>43032</v>
@@ -12025,13 +12021,13 @@
         <v>314</v>
       </c>
       <c r="B289" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C289" t="s">
         <v>246</v>
       </c>
       <c r="F289" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="G289" s="3">
         <v>43032</v>
@@ -12051,7 +12047,7 @@
         <v>99</v>
       </c>
       <c r="F290" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="G290" s="3">
         <v>43032</v>
@@ -12065,13 +12061,13 @@
         <v>318</v>
       </c>
       <c r="B291" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C291" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="F291" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="G291" s="3">
         <v>43032</v>
@@ -12085,10 +12081,10 @@
         <v>320</v>
       </c>
       <c r="B292" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C292" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D292" t="s">
         <v>12</v>
@@ -12097,7 +12093,7 @@
         <v>12</v>
       </c>
       <c r="F292" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G292" s="3">
         <v>43032</v>
@@ -12111,10 +12107,10 @@
         <v>321</v>
       </c>
       <c r="B293" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C293" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="D293" t="s">
         <v>12</v>
@@ -12123,7 +12119,7 @@
         <v>12</v>
       </c>
       <c r="F293" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="G293" s="3">
         <v>43032</v>
@@ -12137,13 +12133,13 @@
         <v>322</v>
       </c>
       <c r="B294" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C294" t="s">
         <v>311</v>
       </c>
       <c r="F294" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G294" s="3">
         <v>43032</v>
@@ -12160,10 +12156,10 @@
         <v>486</v>
       </c>
       <c r="C295" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F295" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="G295" s="3">
         <v>43032</v>
@@ -12177,13 +12173,13 @@
         <v>324</v>
       </c>
       <c r="B296" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C296" t="s">
         <v>493</v>
       </c>
       <c r="F296" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="G296" s="3">
         <v>43032</v>
@@ -12197,13 +12193,13 @@
         <v>325</v>
       </c>
       <c r="B297" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C297" t="s">
         <v>134</v>
       </c>
       <c r="F297" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G297" s="3">
         <v>43032</v>
@@ -12217,13 +12213,13 @@
         <v>326</v>
       </c>
       <c r="B298" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C298" t="s">
         <v>61</v>
       </c>
       <c r="F298" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="G298" s="3">
         <v>43032</v>
@@ -12237,7 +12233,7 @@
         <v>327</v>
       </c>
       <c r="B299" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C299" t="s">
         <v>439</v>
@@ -12249,7 +12245,7 @@
         <v>221</v>
       </c>
       <c r="F299" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="G299" s="3">
         <v>43032</v>
@@ -12263,13 +12259,13 @@
         <v>328</v>
       </c>
       <c r="B300" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C300" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="F300" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="G300" s="3">
         <v>43032</v>
@@ -12283,10 +12279,10 @@
         <v>329</v>
       </c>
       <c r="B301" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C301" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D301" t="s">
         <v>12</v>
@@ -12295,7 +12291,7 @@
         <v>12</v>
       </c>
       <c r="F301" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G301" s="3">
         <v>43032</v>
@@ -12309,13 +12305,13 @@
         <v>330</v>
       </c>
       <c r="B302" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C302" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F302" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="G302" s="3">
         <v>43032</v>
@@ -12329,13 +12325,13 @@
         <v>331</v>
       </c>
       <c r="B303" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C303" t="s">
         <v>67</v>
       </c>
       <c r="F303" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G303" s="3">
         <v>43032</v>
@@ -12349,13 +12345,13 @@
         <v>332</v>
       </c>
       <c r="B304" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C304" t="s">
         <v>30</v>
       </c>
       <c r="F304" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G304" s="3">
         <v>43032</v>
@@ -12369,13 +12365,13 @@
         <v>333</v>
       </c>
       <c r="B305" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C305" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F305" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G305" s="3">
         <v>43032</v>
@@ -12389,13 +12385,13 @@
         <v>334</v>
       </c>
       <c r="B306" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="C306" t="s">
         <v>289</v>
       </c>
       <c r="F306" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="G306" s="3">
         <v>43032</v>
@@ -12409,13 +12405,13 @@
         <v>335</v>
       </c>
       <c r="B307" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C307" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F307" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G307" s="3">
         <v>43032</v>
@@ -12429,13 +12425,13 @@
         <v>336</v>
       </c>
       <c r="B308" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C308" t="s">
         <v>396</v>
       </c>
       <c r="F308" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G308" s="3">
         <v>43032</v>
@@ -12449,13 +12445,13 @@
         <v>337</v>
       </c>
       <c r="B309" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C309" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F309" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G309" s="3">
         <v>43032</v>
@@ -12469,13 +12465,13 @@
         <v>338</v>
       </c>
       <c r="B310" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C310" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F310" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G310" s="3">
         <v>43032</v>
@@ -12489,10 +12485,10 @@
         <v>339</v>
       </c>
       <c r="B311" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C311" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D311" t="s">
         <v>12</v>
@@ -12501,7 +12497,7 @@
         <v>12</v>
       </c>
       <c r="F311" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G311" s="3">
         <v>43032</v>
@@ -12515,7 +12511,7 @@
         <v>340</v>
       </c>
       <c r="B312" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C312" t="s">
         <v>439</v>
@@ -12527,7 +12523,7 @@
         <v>12</v>
       </c>
       <c r="F312" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G312" s="3">
         <v>43032</v>
@@ -12541,13 +12537,13 @@
         <v>341</v>
       </c>
       <c r="B313" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C313" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F313" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G313" s="3">
         <v>43032</v>
@@ -12561,13 +12557,13 @@
         <v>342</v>
       </c>
       <c r="B314" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C314" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="F314" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G314" s="3">
         <v>43032</v>
@@ -12581,10 +12577,10 @@
         <v>343</v>
       </c>
       <c r="B315" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C315" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D315" t="s">
         <v>12</v>
@@ -12593,7 +12589,7 @@
         <v>12</v>
       </c>
       <c r="F315" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="G315" s="3">
         <v>43032</v>
@@ -12607,10 +12603,10 @@
         <v>344</v>
       </c>
       <c r="B316" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C316" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D316" t="s">
         <v>12</v>
@@ -12619,7 +12615,7 @@
         <v>12</v>
       </c>
       <c r="F316" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G316" s="3">
         <v>43032</v>
@@ -12633,10 +12629,10 @@
         <v>345</v>
       </c>
       <c r="B317" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C317" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D317" t="s">
         <v>12</v>
@@ -12645,7 +12641,7 @@
         <v>12</v>
       </c>
       <c r="F317" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G317" s="3">
         <v>43032</v>
@@ -12659,7 +12655,7 @@
         <v>346</v>
       </c>
       <c r="B318" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C318" t="s">
         <v>364</v>
@@ -12671,7 +12667,7 @@
         <v>221</v>
       </c>
       <c r="F318" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="G318" s="3">
         <v>43032</v>
@@ -12685,13 +12681,13 @@
         <v>347</v>
       </c>
       <c r="B319" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C319" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F319" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G319" s="3">
         <v>43032</v>
@@ -12705,10 +12701,10 @@
         <v>348</v>
       </c>
       <c r="B320" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C320" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D320" t="s">
         <v>12</v>
@@ -12717,7 +12713,7 @@
         <v>12</v>
       </c>
       <c r="F320" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G320" s="3">
         <v>43032</v>
@@ -12731,13 +12727,13 @@
         <v>349</v>
       </c>
       <c r="B321" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C321" t="s">
         <v>493</v>
       </c>
       <c r="F321" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="G321" s="3">
         <v>43032</v>
@@ -12751,13 +12747,13 @@
         <v>350</v>
       </c>
       <c r="B322" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="C322" t="s">
         <v>53</v>
       </c>
       <c r="F322" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G322" s="3">
         <v>43032</v>
@@ -12771,13 +12767,13 @@
         <v>351</v>
       </c>
       <c r="B323" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C323" t="s">
         <v>33</v>
       </c>
       <c r="F323" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="G323" s="3">
         <v>43032</v>
@@ -12791,13 +12787,13 @@
         <v>352</v>
       </c>
       <c r="B324" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C324" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F324" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G324" s="3">
         <v>43032</v>
@@ -12811,13 +12807,13 @@
         <v>353</v>
       </c>
       <c r="B325" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C325" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F325" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G325" s="3">
         <v>43032</v>
@@ -12831,7 +12827,7 @@
         <v>354</v>
       </c>
       <c r="B326" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C326" t="s">
         <v>102</v>
@@ -12843,7 +12839,7 @@
         <v>74</v>
       </c>
       <c r="F326" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G326" s="3">
         <v>44277</v>
@@ -12857,13 +12853,13 @@
         <v>355</v>
       </c>
       <c r="B327" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C327" t="s">
         <v>64</v>
       </c>
       <c r="F327" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G327" s="3">
         <v>43032</v>
@@ -12877,7 +12873,7 @@
         <v>356</v>
       </c>
       <c r="B328" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C328" t="s">
         <v>99</v>
@@ -12889,7 +12885,7 @@
         <v>12</v>
       </c>
       <c r="F328" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="G328" s="3">
         <v>43032</v>
@@ -12903,13 +12899,13 @@
         <v>357</v>
       </c>
       <c r="B329" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C329" t="s">
         <v>328</v>
       </c>
       <c r="F329" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="G329" s="3">
         <v>43032</v>
@@ -12923,10 +12919,10 @@
         <v>358</v>
       </c>
       <c r="B330" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C330" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D330" t="s">
         <v>12</v>
@@ -12935,7 +12931,7 @@
         <v>12</v>
       </c>
       <c r="F330" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="G330" s="3">
         <v>43032</v>
@@ -12949,13 +12945,13 @@
         <v>359</v>
       </c>
       <c r="B331" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C331" t="s">
         <v>209</v>
       </c>
       <c r="F331" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G331" s="3">
         <v>43032</v>
@@ -12969,13 +12965,13 @@
         <v>360</v>
       </c>
       <c r="B332" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C332" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="F332" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="G332" s="3">
         <v>43032</v>
@@ -12989,7 +12985,7 @@
         <v>361</v>
       </c>
       <c r="B333" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C333" t="s">
         <v>562</v>
@@ -13001,7 +12997,7 @@
         <v>12</v>
       </c>
       <c r="F333" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G333" s="3">
         <v>43648</v>
@@ -13015,13 +13011,13 @@
         <v>362</v>
       </c>
       <c r="B334" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C334" t="s">
         <v>439</v>
       </c>
       <c r="F334" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G334" s="3">
         <v>43032</v>
@@ -13035,13 +13031,13 @@
         <v>363</v>
       </c>
       <c r="B335" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C335" t="s">
         <v>634</v>
       </c>
       <c r="F335" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G335" s="3">
         <v>43032</v>
@@ -13055,13 +13051,13 @@
         <v>364</v>
       </c>
       <c r="B336" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C336" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F336" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G336" s="3">
         <v>43032</v>
@@ -13075,13 +13071,13 @@
         <v>365</v>
       </c>
       <c r="B337" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C337" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="F337" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G337" s="3">
         <v>43032</v>
@@ -13095,13 +13091,13 @@
         <v>366</v>
       </c>
       <c r="B338" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C338" t="s">
         <v>591</v>
       </c>
       <c r="F338" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="G338" s="3">
         <v>43032</v>
@@ -13115,13 +13111,13 @@
         <v>367</v>
       </c>
       <c r="B339" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C339" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F339" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G339" s="3">
         <v>43032</v>
@@ -13135,13 +13131,13 @@
         <v>368</v>
       </c>
       <c r="B340" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C340" t="s">
         <v>46</v>
       </c>
       <c r="F340" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="G340" s="3">
         <v>43032</v>
@@ -13155,13 +13151,13 @@
         <v>369</v>
       </c>
       <c r="B341" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C341" t="s">
         <v>472</v>
       </c>
       <c r="F341" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G341" s="3">
         <v>43032</v>
@@ -13178,7 +13174,7 @@
         <v>564</v>
       </c>
       <c r="C342" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D342" t="s">
         <v>12</v>
@@ -13187,7 +13183,7 @@
         <v>12</v>
       </c>
       <c r="F342" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="G342" s="3">
         <v>43032</v>
@@ -13201,13 +13197,13 @@
         <v>371</v>
       </c>
       <c r="B343" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C343" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F343" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="G343" s="3">
         <v>43032</v>
@@ -13221,13 +13217,13 @@
         <v>372</v>
       </c>
       <c r="B344" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C344" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F344" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="G344" s="3">
         <v>43032</v>
@@ -13241,13 +13237,13 @@
         <v>373</v>
       </c>
       <c r="B345" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C345" t="s">
         <v>439</v>
       </c>
       <c r="F345" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G345" s="3">
         <v>43032</v>
@@ -13261,13 +13257,13 @@
         <v>374</v>
       </c>
       <c r="B346" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C346" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F346" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="G346" s="3">
         <v>43032</v>
@@ -13281,13 +13277,13 @@
         <v>375</v>
       </c>
       <c r="B347" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C347" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="F347" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="G347" s="3">
         <v>43032</v>
@@ -13304,10 +13300,10 @@
         <v>573</v>
       </c>
       <c r="C348" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F348" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G348" s="3">
         <v>43032</v>
@@ -13321,13 +13317,13 @@
         <v>377</v>
       </c>
       <c r="B349" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C349" t="s">
         <v>487</v>
       </c>
       <c r="F349" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="G349" s="3">
         <v>43032</v>
@@ -13341,13 +13337,13 @@
         <v>378</v>
       </c>
       <c r="B350" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C350" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F350" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="G350" s="3">
         <v>43032</v>
@@ -13364,7 +13360,7 @@
         <v>503</v>
       </c>
       <c r="C351" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D351" t="s">
         <v>12</v>
@@ -13373,7 +13369,7 @@
         <v>221</v>
       </c>
       <c r="F351" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="G351" s="3">
         <v>43032</v>
@@ -13387,13 +13383,13 @@
         <v>380</v>
       </c>
       <c r="B352" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C352" t="s">
         <v>93</v>
       </c>
       <c r="F352" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G352" s="3">
         <v>43032</v>
@@ -13407,13 +13403,13 @@
         <v>381</v>
       </c>
       <c r="B353" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C353" t="s">
         <v>230</v>
       </c>
       <c r="F353" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="G353" s="3">
         <v>43032</v>
@@ -13427,10 +13423,10 @@
         <v>382</v>
       </c>
       <c r="B354" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C354" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="D354" t="s">
         <v>12</v>
@@ -13439,7 +13435,7 @@
         <v>12</v>
       </c>
       <c r="F354" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="G354" s="3">
         <v>43032</v>
@@ -13453,13 +13449,13 @@
         <v>383</v>
       </c>
       <c r="B355" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C355" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F355" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G355" s="3">
         <v>43032</v>
@@ -13473,13 +13469,13 @@
         <v>384</v>
       </c>
       <c r="B356" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C356" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="F356" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G356" s="3">
         <v>43032</v>
@@ -13493,13 +13489,13 @@
         <v>385</v>
       </c>
       <c r="B357" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C357" t="s">
         <v>461</v>
       </c>
       <c r="F357" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G357" s="3">
         <v>43032</v>
@@ -13513,13 +13509,13 @@
         <v>386</v>
       </c>
       <c r="B358" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C358" t="s">
         <v>93</v>
       </c>
       <c r="F358" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G358" s="3">
         <v>43032</v>
@@ -13533,13 +13529,13 @@
         <v>387</v>
       </c>
       <c r="B359" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C359" t="s">
         <v>119</v>
       </c>
       <c r="F359" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="G359" s="3">
         <v>43032</v>
@@ -13553,13 +13549,13 @@
         <v>388</v>
       </c>
       <c r="B360" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C360" t="s">
         <v>255</v>
       </c>
       <c r="F360" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="G360" s="3">
         <v>43032</v>
@@ -13573,13 +13569,13 @@
         <v>389</v>
       </c>
       <c r="B361" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C361" t="s">
         <v>206</v>
       </c>
       <c r="F361" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="G361" s="3">
         <v>43032</v>
@@ -13593,13 +13589,13 @@
         <v>390</v>
       </c>
       <c r="B362" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C362" t="s">
         <v>260</v>
       </c>
       <c r="F362" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G362" s="3">
         <v>43032</v>
@@ -13613,7 +13609,7 @@
         <v>391</v>
       </c>
       <c r="B363" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C363" t="s">
         <v>300</v>
@@ -13625,7 +13621,7 @@
         <v>12</v>
       </c>
       <c r="F363" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="G363" s="3">
         <v>43032</v>
@@ -13639,13 +13635,13 @@
         <v>392</v>
       </c>
       <c r="B364" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C364" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F364" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="G364" s="3">
         <v>43032</v>
@@ -13659,13 +13655,13 @@
         <v>393</v>
       </c>
       <c r="B365" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C365" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F365" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="G365" s="3">
         <v>43032</v>
@@ -13679,13 +13675,13 @@
         <v>394</v>
       </c>
       <c r="B366" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C366" t="s">
         <v>246</v>
       </c>
       <c r="F366" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="G366" s="3">
         <v>43032</v>
@@ -13699,13 +13695,13 @@
         <v>395</v>
       </c>
       <c r="B367" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C367" t="s">
         <v>180</v>
       </c>
       <c r="F367" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="G367" s="3">
         <v>43032</v>
@@ -13725,7 +13721,7 @@
         <v>46</v>
       </c>
       <c r="F368" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="G368" s="3">
         <v>43032</v>
@@ -13739,10 +13735,10 @@
         <v>397</v>
       </c>
       <c r="B369" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C369" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D369" t="s">
         <v>12</v>
@@ -13751,7 +13747,7 @@
         <v>12</v>
       </c>
       <c r="F369" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="G369" s="3">
         <v>43032</v>
@@ -13765,10 +13761,10 @@
         <v>398</v>
       </c>
       <c r="B370" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C370" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D370" t="s">
         <v>12</v>
@@ -13777,7 +13773,7 @@
         <v>12</v>
       </c>
       <c r="F370" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G370" s="3">
         <v>43032</v>
@@ -13791,7 +13787,7 @@
         <v>399</v>
       </c>
       <c r="B371" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="C371" t="s">
         <v>413</v>
@@ -13803,7 +13799,7 @@
         <v>12</v>
       </c>
       <c r="F371" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G371" s="3">
         <v>43032</v>
@@ -13817,7 +13813,7 @@
         <v>400</v>
       </c>
       <c r="B372" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C372" t="s">
         <v>322</v>
@@ -13829,7 +13825,7 @@
         <v>12</v>
       </c>
       <c r="F372" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="G372" s="3">
         <v>43032</v>
@@ -13843,13 +13839,13 @@
         <v>401</v>
       </c>
       <c r="B373" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="C373" t="s">
         <v>344</v>
       </c>
       <c r="F373" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="G373" s="3">
         <v>43032</v>
@@ -13863,13 +13859,13 @@
         <v>402</v>
       </c>
       <c r="B374" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C374" t="s">
         <v>156</v>
       </c>
       <c r="F374" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G374" s="3">
         <v>43032</v>
@@ -13883,13 +13879,13 @@
         <v>403</v>
       </c>
       <c r="B375" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C375" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="F375" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="G375" s="3">
         <v>44159</v>
@@ -13903,13 +13899,13 @@
         <v>404</v>
       </c>
       <c r="B376" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C376" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="F376" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G376" s="3">
         <v>43032</v>
@@ -13923,13 +13919,13 @@
         <v>405</v>
       </c>
       <c r="B377" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C377" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="F377" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="G377" s="3">
         <v>43409</v>
@@ -13943,13 +13939,13 @@
         <v>407</v>
       </c>
       <c r="B378" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C378" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="F378" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="G378" s="3">
         <v>43032</v>
@@ -13963,13 +13959,13 @@
         <v>408</v>
       </c>
       <c r="B379" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C379" t="s">
         <v>418</v>
       </c>
       <c r="F379" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="G379" s="3">
         <v>43032</v>
@@ -13983,10 +13979,10 @@
         <v>409</v>
       </c>
       <c r="B380" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="C380" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="D380" t="s">
         <v>12</v>
@@ -13995,7 +13991,7 @@
         <v>12</v>
       </c>
       <c r="F380" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G380" s="3">
         <v>43032</v>
@@ -14009,13 +14005,13 @@
         <v>410</v>
       </c>
       <c r="B381" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C381" t="s">
         <v>382</v>
       </c>
       <c r="F381" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="G381" s="3">
         <v>43032</v>
@@ -14029,13 +14025,13 @@
         <v>411</v>
       </c>
       <c r="B382" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C382" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F382" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="G382" s="3">
         <v>43032</v>
@@ -14049,13 +14045,13 @@
         <v>412</v>
       </c>
       <c r="B383" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C383" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F383" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G383" s="3">
         <v>43032</v>
@@ -14069,13 +14065,13 @@
         <v>413</v>
       </c>
       <c r="B384" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C384" t="s">
         <v>490</v>
       </c>
       <c r="F384" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="G384" s="3">
         <v>43032</v>
@@ -14095,7 +14091,7 @@
         <v>252</v>
       </c>
       <c r="F385" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="G385" s="3">
         <v>43032</v>
@@ -14109,13 +14105,13 @@
         <v>415</v>
       </c>
       <c r="B386" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C386" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F386" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="G386" s="3">
         <v>43032</v>
@@ -14129,10 +14125,10 @@
         <v>416</v>
       </c>
       <c r="B387" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="C387" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="D387" t="s">
         <v>12</v>
@@ -14141,7 +14137,7 @@
         <v>12</v>
       </c>
       <c r="F387" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="G387" s="3">
         <v>43032</v>
@@ -14155,7 +14151,7 @@
         <v>417</v>
       </c>
       <c r="B388" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C388" t="s">
         <v>322</v>
@@ -14167,7 +14163,7 @@
         <v>12</v>
       </c>
       <c r="F388" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G388" s="3">
         <v>43032</v>
@@ -14181,13 +14177,13 @@
         <v>418</v>
       </c>
       <c r="B389" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C389" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="F389" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="G389" s="3">
         <v>43032</v>
@@ -14201,13 +14197,13 @@
         <v>419</v>
       </c>
       <c r="B390" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="C390" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F390" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="G390" s="3">
         <v>43032</v>
@@ -14221,13 +14217,13 @@
         <v>420</v>
       </c>
       <c r="B391" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C391" t="s">
         <v>308</v>
       </c>
       <c r="F391" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="G391" s="3">
         <v>43032</v>
@@ -14241,10 +14237,10 @@
         <v>421</v>
       </c>
       <c r="B392" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="C392" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D392" t="s">
         <v>12</v>
@@ -14253,7 +14249,7 @@
         <v>12</v>
       </c>
       <c r="F392" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G392" s="3">
         <v>44317</v>
@@ -14270,10 +14266,10 @@
         <v>89</v>
       </c>
       <c r="C393" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="F393" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="G393" s="3">
         <v>43032</v>
@@ -14287,13 +14283,13 @@
         <v>423</v>
       </c>
       <c r="B394" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C394" t="s">
         <v>200</v>
       </c>
       <c r="F394" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="G394" s="3">
         <v>43678</v>
@@ -14307,13 +14303,13 @@
         <v>424</v>
       </c>
       <c r="B395" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C395" t="s">
         <v>421</v>
       </c>
       <c r="F395" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="G395" s="3">
         <v>43032</v>
@@ -14327,13 +14323,13 @@
         <v>425</v>
       </c>
       <c r="B396" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="C396" t="s">
         <v>246</v>
       </c>
       <c r="F396" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="G396" s="3">
         <v>43773</v>
@@ -14347,13 +14343,13 @@
         <v>426</v>
       </c>
       <c r="B397" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C397" t="s">
         <v>143</v>
       </c>
       <c r="F397" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="G397" s="3">
         <v>43032</v>
@@ -14367,13 +14363,13 @@
         <v>427</v>
       </c>
       <c r="B398" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C398" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F398" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="G398" s="3">
         <v>43032</v>
@@ -14387,13 +14383,13 @@
         <v>428</v>
       </c>
       <c r="B399" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="C399" t="s">
         <v>493</v>
       </c>
       <c r="F399" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="G399" s="3">
         <v>43032</v>
@@ -14407,13 +14403,13 @@
         <v>429</v>
       </c>
       <c r="B400" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C400" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F400" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="G400" s="3">
         <v>43032</v>
@@ -14427,13 +14423,13 @@
         <v>430</v>
       </c>
       <c r="B401" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C401" t="s">
         <v>308</v>
       </c>
       <c r="F401" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="G401" s="3">
         <v>43032</v>
@@ -14447,13 +14443,13 @@
         <v>431</v>
       </c>
       <c r="B402" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C402" t="s">
         <v>143</v>
       </c>
       <c r="F402" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="G402" s="3">
         <v>43032</v>
@@ -14467,13 +14463,13 @@
         <v>432</v>
       </c>
       <c r="B403" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="C403" t="s">
         <v>206</v>
       </c>
       <c r="F403" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="G403" s="3">
         <v>43032</v>
@@ -14487,13 +14483,13 @@
         <v>433</v>
       </c>
       <c r="B404" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C404" t="s">
         <v>230</v>
       </c>
       <c r="F404" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="G404" s="3">
         <v>43032</v>
@@ -14507,13 +14503,13 @@
         <v>434</v>
       </c>
       <c r="B405" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C405" t="s">
         <v>410</v>
       </c>
       <c r="F405" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="G405" s="3">
         <v>43032</v>
@@ -14527,13 +14523,13 @@
         <v>435</v>
       </c>
       <c r="B406" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C406" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F406" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G406" s="3">
         <v>43032</v>
@@ -14547,7 +14543,7 @@
         <v>436</v>
       </c>
       <c r="B407" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C407" t="s">
         <v>311</v>
@@ -14559,7 +14555,7 @@
         <v>12</v>
       </c>
       <c r="F407" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="G407" s="3">
         <v>43032</v>
@@ -14573,13 +14569,13 @@
         <v>437</v>
       </c>
       <c r="B408" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C408" t="s">
         <v>322</v>
       </c>
       <c r="F408" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="G408" s="3">
         <v>43032</v>
@@ -14593,13 +14589,13 @@
         <v>438</v>
       </c>
       <c r="B409" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C409" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F409" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="G409" s="3">
         <v>43032</v>
@@ -14613,7 +14609,7 @@
         <v>439</v>
       </c>
       <c r="B410" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C410" t="s">
         <v>143</v>
@@ -14625,7 +14621,7 @@
         <v>12</v>
       </c>
       <c r="F410" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="G410" s="3">
         <v>43032</v>
@@ -14639,13 +14635,13 @@
         <v>440</v>
       </c>
       <c r="B411" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="C411" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F411" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="G411" s="3">
         <v>43032</v>
@@ -14659,13 +14655,13 @@
         <v>441</v>
       </c>
       <c r="B412" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C412" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="F412" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="G412" s="3">
         <v>43032</v>
@@ -14679,13 +14675,13 @@
         <v>442</v>
       </c>
       <c r="B413" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="C413" t="s">
         <v>102</v>
       </c>
       <c r="F413" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="G413" s="3">
         <v>43032</v>
@@ -14699,13 +14695,13 @@
         <v>443</v>
       </c>
       <c r="B414" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C414" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="F414" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="G414" s="3">
         <v>43032</v>
@@ -14719,13 +14715,13 @@
         <v>444</v>
       </c>
       <c r="B415" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C415" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="F415" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="G415" s="3">
         <v>43032</v>
@@ -14739,10 +14735,10 @@
         <v>445</v>
       </c>
       <c r="B416" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C416" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D416" t="s">
         <v>12</v>
@@ -14751,7 +14747,7 @@
         <v>12</v>
       </c>
       <c r="F416" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="G416" s="3">
         <v>43032</v>
@@ -14765,13 +14761,13 @@
         <v>446</v>
       </c>
       <c r="B417" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C417" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="F417" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="G417" s="3">
         <v>43032</v>
@@ -14785,13 +14781,13 @@
         <v>447</v>
       </c>
       <c r="B418" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="C418" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F418" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="G418" s="3">
         <v>43032</v>
@@ -14811,7 +14807,7 @@
         <v>61</v>
       </c>
       <c r="F419" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="G419" s="3">
         <v>43032</v>
@@ -14825,13 +14821,13 @@
         <v>449</v>
       </c>
       <c r="B420" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="C420" t="s">
         <v>634</v>
       </c>
       <c r="F420" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="G420" s="3">
         <v>43032</v>
@@ -14845,13 +14841,13 @@
         <v>450</v>
       </c>
       <c r="B421" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C421" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="F421" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="G421" s="3">
         <v>43032</v>
@@ -14865,7 +14861,7 @@
         <v>451</v>
       </c>
       <c r="B422" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C422" t="s">
         <v>197</v>
@@ -14877,7 +14873,7 @@
         <v>12</v>
       </c>
       <c r="F422" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="G422" s="3">
         <v>43032</v>
@@ -14891,13 +14887,13 @@
         <v>452</v>
       </c>
       <c r="B423" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C423" t="s">
         <v>322</v>
       </c>
       <c r="F423" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="G423" s="3">
         <v>43032</v>
@@ -14911,13 +14907,13 @@
         <v>453</v>
       </c>
       <c r="B424" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C424" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="F424" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="G424" s="3">
         <v>43032</v>
@@ -14931,13 +14927,13 @@
         <v>454</v>
       </c>
       <c r="B425" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C425" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F425" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="G425" s="3">
         <v>43032</v>
@@ -14951,13 +14947,13 @@
         <v>455</v>
       </c>
       <c r="B426" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C426" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="F426" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="G426" s="3">
         <v>43032</v>
@@ -14971,13 +14967,13 @@
         <v>456</v>
       </c>
       <c r="B427" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C427" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F427" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="G427" s="3">
         <v>43032</v>
@@ -14991,7 +14987,7 @@
         <v>457</v>
       </c>
       <c r="B428" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C428" t="s">
         <v>30</v>
@@ -15003,7 +14999,7 @@
         <v>12</v>
       </c>
       <c r="F428" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="G428" s="3">
         <v>43032</v>
@@ -15017,13 +15013,13 @@
         <v>458</v>
       </c>
       <c r="B429" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="C429" t="s">
         <v>317</v>
       </c>
       <c r="F429" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="G429" s="3">
         <v>43032</v>
@@ -15037,13 +15033,13 @@
         <v>460</v>
       </c>
       <c r="B430" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C430" t="s">
         <v>8</v>
       </c>
       <c r="F430" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="G430" s="3">
         <v>43032</v>
@@ -15057,13 +15053,13 @@
         <v>461</v>
       </c>
       <c r="B431" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="C431" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F431" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="G431" s="3">
         <v>43032</v>
@@ -15077,13 +15073,13 @@
         <v>462</v>
       </c>
       <c r="B432" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C432" t="s">
         <v>99</v>
       </c>
       <c r="F432" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="G432" s="3">
         <v>43032</v>
@@ -15097,13 +15093,13 @@
         <v>463</v>
       </c>
       <c r="B433" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C433" t="s">
         <v>173</v>
       </c>
       <c r="F433" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="G433" s="3">
         <v>43032</v>
@@ -15117,13 +15113,13 @@
         <v>464</v>
       </c>
       <c r="B434" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C434" t="s">
         <v>53</v>
       </c>
       <c r="F434" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="G434" s="3">
         <v>43032</v>
@@ -15137,13 +15133,13 @@
         <v>465</v>
       </c>
       <c r="B435" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="C435" t="s">
         <v>180</v>
       </c>
       <c r="F435" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="G435" s="3">
         <v>43075</v>
@@ -15157,7 +15153,7 @@
         <v>466</v>
       </c>
       <c r="B436" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C436" t="s">
         <v>27</v>
@@ -15169,7 +15165,7 @@
         <v>12</v>
       </c>
       <c r="F436" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="G436" s="3">
         <v>43032</v>
@@ -15183,13 +15179,13 @@
         <v>467</v>
       </c>
       <c r="B437" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C437" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="F437" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="G437" s="3">
         <v>43032</v>
@@ -15203,10 +15199,10 @@
         <v>468</v>
       </c>
       <c r="B438" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="C438" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="D438" t="s">
         <v>12</v>
@@ -15215,7 +15211,7 @@
         <v>12</v>
       </c>
       <c r="F438" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="G438" s="3">
         <v>43032</v>
@@ -15229,13 +15225,13 @@
         <v>469</v>
       </c>
       <c r="B439" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="C439" t="s">
         <v>93</v>
       </c>
       <c r="F439" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="G439" s="3">
         <v>44324</v>
@@ -15249,13 +15245,13 @@
         <v>470</v>
       </c>
       <c r="B440" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C440" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="F440" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="G440" s="3">
         <v>43032</v>
@@ -15269,13 +15265,13 @@
         <v>471</v>
       </c>
       <c r="B441" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C441" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="F441" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="G441" s="3">
         <v>43032</v>
@@ -15289,13 +15285,13 @@
         <v>473</v>
       </c>
       <c r="B442" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="C442" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="F442" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="G442" s="3">
         <v>43439</v>
@@ -15309,13 +15305,13 @@
         <v>474</v>
       </c>
       <c r="B443" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C443" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="F443" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="G443" s="3">
         <v>43032</v>
@@ -15329,13 +15325,13 @@
         <v>478</v>
       </c>
       <c r="B444" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="C444" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="F444" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="G444" s="3">
         <v>43032</v>
@@ -15349,7 +15345,7 @@
         <v>479</v>
       </c>
       <c r="B445" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="C445" t="s">
         <v>255</v>
@@ -15361,7 +15357,7 @@
         <v>12</v>
       </c>
       <c r="F445" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="G445" s="3">
         <v>43032</v>
@@ -15375,13 +15371,13 @@
         <v>480</v>
       </c>
       <c r="B446" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="C446" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="F446" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="G446" s="3">
         <v>43032</v>
@@ -15395,13 +15391,13 @@
         <v>481</v>
       </c>
       <c r="B447" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C447" t="s">
         <v>102</v>
       </c>
       <c r="F447" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="G447" s="3">
         <v>43032</v>
@@ -15415,13 +15411,13 @@
         <v>482</v>
       </c>
       <c r="B448" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C448" t="s">
         <v>388</v>
       </c>
       <c r="F448" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="G448" s="3">
         <v>43032</v>
@@ -15435,13 +15431,13 @@
         <v>483</v>
       </c>
       <c r="B449" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C449" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="F449" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="G449" s="3">
         <v>43032</v>
@@ -15455,13 +15451,13 @@
         <v>484</v>
       </c>
       <c r="B450" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="C450" t="s">
         <v>591</v>
       </c>
       <c r="F450" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="G450" s="3">
         <v>43032</v>
@@ -15475,13 +15471,13 @@
         <v>485</v>
       </c>
       <c r="B451" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="C451" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="F451" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="G451" s="3">
         <v>43032</v>
@@ -15495,13 +15491,13 @@
         <v>486</v>
       </c>
       <c r="B452" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="C452" t="s">
         <v>137</v>
       </c>
       <c r="F452" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="G452" s="3">
         <v>43032</v>
@@ -15515,13 +15511,13 @@
         <v>487</v>
       </c>
       <c r="B453" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="C453" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F453" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="G453" s="3">
         <v>43976</v>
@@ -15535,13 +15531,13 @@
         <v>488</v>
       </c>
       <c r="B454" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C454" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="F454" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="G454" s="3">
         <v>43032</v>
@@ -15555,13 +15551,13 @@
         <v>489</v>
       </c>
       <c r="B455" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="C455" t="s">
         <v>294</v>
       </c>
       <c r="F455" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="G455" s="3">
         <v>43032</v>
@@ -15578,10 +15574,10 @@
         <v>492</v>
       </c>
       <c r="C456" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="F456" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="G456" s="3">
         <v>43032</v>
@@ -15607,7 +15603,7 @@
         <v>12</v>
       </c>
       <c r="F457" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="G457" s="3">
         <v>43032</v>
@@ -15621,13 +15617,13 @@
         <v>492</v>
       </c>
       <c r="B458" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="C458" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="F458" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="G458" s="3">
         <v>44272</v>
@@ -15641,13 +15637,13 @@
         <v>493</v>
       </c>
       <c r="B459" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C459" t="s">
         <v>46</v>
       </c>
       <c r="F459" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="G459" s="3">
         <v>43032</v>
@@ -15667,7 +15663,7 @@
         <v>96</v>
       </c>
       <c r="F460" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="G460" s="3">
         <v>43032</v>
@@ -15681,13 +15677,13 @@
         <v>495</v>
       </c>
       <c r="B461" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="C461" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="F461" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="G461" s="3">
         <v>43032</v>
@@ -15701,13 +15697,13 @@
         <v>497</v>
       </c>
       <c r="B462" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C462" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="F462" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="G462" s="3">
         <v>43032</v>
@@ -15721,13 +15717,13 @@
         <v>498</v>
       </c>
       <c r="B463" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C463" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="F463" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="G463" s="3">
         <v>43032</v>
@@ -15741,13 +15737,13 @@
         <v>499</v>
       </c>
       <c r="B464" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="C464" t="s">
         <v>246</v>
       </c>
       <c r="F464" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="G464" s="3">
         <v>43032</v>
@@ -15761,7 +15757,7 @@
         <v>500</v>
       </c>
       <c r="B465" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="C465" t="s">
         <v>53</v>
@@ -15773,7 +15769,7 @@
         <v>12</v>
       </c>
       <c r="F465" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="G465" s="3">
         <v>43032</v>
@@ -15787,13 +15783,13 @@
         <v>501</v>
       </c>
       <c r="B466" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="C466" t="s">
         <v>58</v>
       </c>
       <c r="F466" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="G466" s="3">
         <v>43032</v>
@@ -15807,13 +15803,13 @@
         <v>502</v>
       </c>
       <c r="B467" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C467" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="F467" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="G467" s="3">
         <v>43032</v>
@@ -15827,13 +15823,13 @@
         <v>503</v>
       </c>
       <c r="B468" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C468" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="F468" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="G468" s="3">
         <v>43032</v>
@@ -15847,13 +15843,13 @@
         <v>504</v>
       </c>
       <c r="B469" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="C469" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="F469" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="G469" s="3">
         <v>43032</v>
@@ -15867,13 +15863,13 @@
         <v>505</v>
       </c>
       <c r="B470" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="C470" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="F470" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="G470" s="3">
         <v>43032</v>
@@ -15887,13 +15883,13 @@
         <v>506</v>
       </c>
       <c r="B471" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C471" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="F471" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="G471" s="3">
         <v>43032</v>
@@ -15907,13 +15903,13 @@
         <v>507</v>
       </c>
       <c r="B472" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="C472" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="F472" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="G472" s="3">
         <v>43032</v>
@@ -15927,13 +15923,13 @@
         <v>508</v>
       </c>
       <c r="B473" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="C473" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="F473" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="G473" s="3">
         <v>43032</v>
@@ -15947,13 +15943,13 @@
         <v>509</v>
       </c>
       <c r="B474" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C474" t="s">
         <v>557</v>
       </c>
       <c r="F474" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G474" s="3">
         <v>43032</v>
@@ -15967,7 +15963,7 @@
         <v>510</v>
       </c>
       <c r="B475" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="C475" t="s">
         <v>102</v>
@@ -15979,7 +15975,7 @@
         <v>12</v>
       </c>
       <c r="F475" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="G475" s="3">
         <v>43032</v>
@@ -15993,13 +15989,13 @@
         <v>511</v>
       </c>
       <c r="B476" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="C476" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="F476" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="G476" s="3">
         <v>43032</v>
@@ -16013,10 +16009,10 @@
         <v>512</v>
       </c>
       <c r="B477" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C477" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="D477" t="s">
         <v>12</v>
@@ -16025,7 +16021,7 @@
         <v>12</v>
       </c>
       <c r="F477" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="G477" s="3">
         <v>43032</v>
@@ -16039,13 +16035,13 @@
         <v>513</v>
       </c>
       <c r="B478" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C478" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="F478" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="G478" s="3">
         <v>43032</v>
@@ -16059,13 +16055,13 @@
         <v>514</v>
       </c>
       <c r="B479" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C479" t="s">
         <v>333</v>
       </c>
       <c r="F479" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="G479" s="3">
         <v>43032</v>
@@ -16079,13 +16075,13 @@
         <v>515</v>
       </c>
       <c r="B480" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="C480" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F480" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="G480" s="3">
         <v>43032</v>
@@ -16099,13 +16095,13 @@
         <v>516</v>
       </c>
       <c r="B481" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="C481" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F481" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="G481" s="3">
         <v>43032</v>
@@ -16119,13 +16115,13 @@
         <v>517</v>
       </c>
       <c r="B482" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C482" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F482" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="G482" s="3">
         <v>43032</v>
@@ -16139,13 +16135,13 @@
         <v>518</v>
       </c>
       <c r="B483" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C483" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="F483" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="G483" s="3">
         <v>43032</v>
@@ -16159,13 +16155,13 @@
         <v>519</v>
       </c>
       <c r="B484" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C484" t="s">
         <v>36</v>
       </c>
       <c r="F484" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="G484" s="3">
         <v>43032</v>
@@ -16179,13 +16175,13 @@
         <v>520</v>
       </c>
       <c r="B485" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C485" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F485" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="G485" s="3">
         <v>43032</v>
@@ -16199,13 +16195,13 @@
         <v>521</v>
       </c>
       <c r="B486" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C486" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F486" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="G486" s="3">
         <v>43032</v>
@@ -16219,13 +16215,13 @@
         <v>522</v>
       </c>
       <c r="B487" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C487" t="s">
         <v>322</v>
       </c>
       <c r="F487" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="G487" s="3">
         <v>43032</v>
@@ -16239,13 +16235,13 @@
         <v>523</v>
       </c>
       <c r="B488" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C488" t="s">
         <v>8</v>
       </c>
       <c r="F488" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="G488" s="3">
         <v>43032</v>
@@ -16259,7 +16255,7 @@
         <v>524</v>
       </c>
       <c r="B489" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C489" t="s">
         <v>333</v>
@@ -16271,7 +16267,7 @@
         <v>12</v>
       </c>
       <c r="F489" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="G489" s="3">
         <v>43032</v>
@@ -16285,13 +16281,13 @@
         <v>525</v>
       </c>
       <c r="B490" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C490" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="F490" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="G490" s="3">
         <v>43032</v>
@@ -16305,13 +16301,13 @@
         <v>526</v>
       </c>
       <c r="B491" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="C491" t="s">
         <v>289</v>
       </c>
       <c r="F491" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="G491" s="3">
         <v>43032</v>
@@ -16325,13 +16321,13 @@
         <v>527</v>
       </c>
       <c r="B492" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C492" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="F492" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="G492" s="3">
         <v>43032</v>
@@ -16351,7 +16347,7 @@
         <v>186</v>
       </c>
       <c r="F493" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="G493" s="3">
         <v>43032</v>
@@ -16365,13 +16361,13 @@
         <v>529</v>
       </c>
       <c r="B494" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C494" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="F494" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="G494" s="3">
         <v>43032</v>
@@ -16385,13 +16381,13 @@
         <v>530</v>
       </c>
       <c r="B495" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C495" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F495" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="G495" s="3">
         <v>43032</v>
@@ -16405,13 +16401,13 @@
         <v>531</v>
       </c>
       <c r="B496" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C496" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="F496" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="G496" s="3">
         <v>43032</v>
@@ -16425,7 +16421,7 @@
         <v>532</v>
       </c>
       <c r="B497" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C497" t="s">
         <v>180</v>
@@ -16437,7 +16433,7 @@
         <v>12</v>
       </c>
       <c r="F497" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="G497" s="3">
         <v>43032</v>
@@ -16451,13 +16447,13 @@
         <v>533</v>
       </c>
       <c r="B498" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C498" t="s">
         <v>134</v>
       </c>
       <c r="F498" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="G498" s="3">
         <v>43032</v>
@@ -16471,13 +16467,13 @@
         <v>534</v>
       </c>
       <c r="B499" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C499" t="s">
         <v>487</v>
       </c>
       <c r="F499" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="G499" s="3">
         <v>43032</v>
@@ -16491,10 +16487,10 @@
         <v>535</v>
       </c>
       <c r="B500" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="C500" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="D500" t="s">
         <v>12</v>
@@ -16503,7 +16499,7 @@
         <v>12</v>
       </c>
       <c r="F500" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="G500" s="3">
         <v>43032</v>
@@ -16517,13 +16513,13 @@
         <v>536</v>
       </c>
       <c r="B501" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="C501" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="F501" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="G501" s="3">
         <v>43032</v>
@@ -16537,13 +16533,13 @@
         <v>537</v>
       </c>
       <c r="B502" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="C502" t="s">
         <v>439</v>
       </c>
       <c r="F502" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="G502" s="3">
         <v>43032</v>
@@ -16557,13 +16553,13 @@
         <v>538</v>
       </c>
       <c r="B503" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C503" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="F503" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="G503" s="3">
         <v>43032</v>
@@ -16577,13 +16573,13 @@
         <v>539</v>
       </c>
       <c r="B504" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C504" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="F504" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="G504" s="3">
         <v>43032</v>
@@ -16597,10 +16593,10 @@
         <v>540</v>
       </c>
       <c r="B505" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C505" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="D505" t="s">
         <v>12</v>
@@ -16609,7 +16605,7 @@
         <v>12</v>
       </c>
       <c r="F505" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="G505" s="3">
         <v>43032</v>
@@ -16623,13 +16619,13 @@
         <v>541</v>
       </c>
       <c r="B506" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C506" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="F506" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="G506" s="3">
         <v>43032</v>
@@ -16643,13 +16639,13 @@
         <v>542</v>
       </c>
       <c r="B507" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="C507" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="F507" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="G507" s="3">
         <v>43032</v>
@@ -16663,13 +16659,13 @@
         <v>543</v>
       </c>
       <c r="B508" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C508" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="F508" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="G508" s="3">
         <v>43032</v>
@@ -16683,10 +16679,10 @@
         <v>544</v>
       </c>
       <c r="B509" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C509" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D509" t="s">
         <v>12</v>
@@ -16695,7 +16691,7 @@
         <v>12</v>
       </c>
       <c r="F509" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="G509" s="3">
         <v>43032</v>
@@ -16709,13 +16705,13 @@
         <v>545</v>
       </c>
       <c r="B510" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C510" t="s">
         <v>562</v>
       </c>
       <c r="F510" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="G510" s="3">
         <v>43032</v>
@@ -16729,13 +16725,13 @@
         <v>546</v>
       </c>
       <c r="B511" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="C511" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="F511" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="G511" s="3">
         <v>43032</v>
@@ -16749,13 +16745,13 @@
         <v>547</v>
       </c>
       <c r="B512" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="C512" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="F512" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="G512" s="3">
         <v>43032</v>
@@ -16769,13 +16765,13 @@
         <v>548</v>
       </c>
       <c r="B513" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="C513" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="F513" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="G513" s="3">
         <v>43032</v>
@@ -16789,13 +16785,13 @@
         <v>549</v>
       </c>
       <c r="B514" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="C514" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="F514" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="G514" s="3">
         <v>43032</v>
@@ -16809,13 +16805,13 @@
         <v>550</v>
       </c>
       <c r="B515" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="C515" t="s">
         <v>46</v>
       </c>
       <c r="F515" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="G515" s="3">
         <v>43032</v>
@@ -16829,13 +16825,13 @@
         <v>551</v>
       </c>
       <c r="B516" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="C516" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="F516" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="G516" s="3">
         <v>43032</v>
@@ -16849,13 +16845,13 @@
         <v>552</v>
       </c>
       <c r="B517" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C517" t="s">
         <v>93</v>
       </c>
       <c r="F517" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="G517" s="3">
         <v>43032</v>
@@ -16869,13 +16865,13 @@
         <v>553</v>
       </c>
       <c r="B518" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="C518" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="F518" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="G518" s="3">
         <v>43032</v>
@@ -16889,13 +16885,13 @@
         <v>554</v>
       </c>
       <c r="B519" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C519" t="s">
         <v>93</v>
       </c>
       <c r="F519" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="G519" s="3">
         <v>43032</v>
@@ -16909,10 +16905,10 @@
         <v>555</v>
       </c>
       <c r="B520" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C520" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D520" t="s">
         <v>12</v>
@@ -16921,7 +16917,7 @@
         <v>12</v>
       </c>
       <c r="F520" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="G520" s="3">
         <v>43032</v>
@@ -16935,7 +16931,7 @@
         <v>556</v>
       </c>
       <c r="B521" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="C521" t="s">
         <v>53</v>
@@ -16947,7 +16943,7 @@
         <v>12</v>
       </c>
       <c r="F521" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G521" s="3">
         <v>43032</v>
@@ -16961,7 +16957,7 @@
         <v>557</v>
       </c>
       <c r="B522" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C522" t="s">
         <v>487</v>
@@ -16973,7 +16969,7 @@
         <v>12</v>
       </c>
       <c r="F522" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="G522" s="3">
         <v>43032</v>
@@ -16987,13 +16983,13 @@
         <v>558</v>
       </c>
       <c r="B523" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="C523" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="F523" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="G523" s="3">
         <v>43032</v>
@@ -17007,13 +17003,13 @@
         <v>559</v>
       </c>
       <c r="B524" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C524" t="s">
         <v>8</v>
       </c>
       <c r="F524" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G524" s="3">
         <v>43032</v>
@@ -17027,13 +17023,13 @@
         <v>560</v>
       </c>
       <c r="B525" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="C525" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F525" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="G525" s="3">
         <v>43032</v>
@@ -17047,13 +17043,13 @@
         <v>561</v>
       </c>
       <c r="B526" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="C526" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="F526" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="G526" s="3">
         <v>43032</v>
@@ -17067,13 +17063,13 @@
         <v>562</v>
       </c>
       <c r="B527" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="C527" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="F527" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="G527" s="3">
         <v>43032</v>
@@ -17087,13 +17083,13 @@
         <v>563</v>
       </c>
       <c r="B528" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C528" t="s">
         <v>113</v>
       </c>
       <c r="F528" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="G528" s="3">
         <v>43032</v>
@@ -17107,7 +17103,7 @@
         <v>564</v>
       </c>
       <c r="B529" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C529" t="s">
         <v>402</v>
@@ -17119,7 +17115,7 @@
         <v>12</v>
       </c>
       <c r="F529" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="G529" s="3">
         <v>43032</v>
@@ -17133,13 +17129,13 @@
         <v>565</v>
       </c>
       <c r="B530" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="C530" t="s">
         <v>246</v>
       </c>
       <c r="F530" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="G530" s="3">
         <v>43032</v>
@@ -17153,10 +17149,10 @@
         <v>566</v>
       </c>
       <c r="B531" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="C531" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="D531" t="s">
         <v>12</v>
@@ -17165,7 +17161,7 @@
         <v>12</v>
       </c>
       <c r="F531" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="G531" s="3">
         <v>43032</v>
@@ -17179,13 +17175,13 @@
         <v>567</v>
       </c>
       <c r="B532" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C532" t="s">
         <v>421</v>
       </c>
       <c r="F532" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="G532" s="3">
         <v>43032</v>
@@ -17199,7 +17195,7 @@
         <v>568</v>
       </c>
       <c r="B533" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="C533" t="s">
         <v>230</v>
@@ -17211,7 +17207,7 @@
         <v>12</v>
       </c>
       <c r="F533" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="G533" s="3">
         <v>43032</v>
@@ -17225,7 +17221,7 @@
         <v>569</v>
       </c>
       <c r="B534" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="C534" t="s">
         <v>319</v>
@@ -17237,12 +17233,12 @@
         <v>221</v>
       </c>
       <c r="F534" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="G534" s="3">
         <v>43032</v>
       </c>
-      <c r="H534" s="4">
+      <c r="H534" s="3">
         <v>44461</v>
       </c>
     </row>
@@ -17251,13 +17247,13 @@
         <v>570</v>
       </c>
       <c r="B535" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="C535" t="s">
         <v>294</v>
       </c>
       <c r="F535" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="G535" s="3">
         <v>43032</v>
@@ -17271,13 +17267,13 @@
         <v>571</v>
       </c>
       <c r="B536" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="C536" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="F536" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G536" s="3">
         <v>43032</v>
@@ -17291,13 +17287,13 @@
         <v>572</v>
       </c>
       <c r="B537" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="C537" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="F537" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G537" s="3">
         <v>43032</v>
@@ -17311,13 +17307,13 @@
         <v>573</v>
       </c>
       <c r="B538" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="C538" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F538" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G538" s="3">
         <v>43032</v>
@@ -17331,13 +17327,13 @@
         <v>574</v>
       </c>
       <c r="B539" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="C539" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="F539" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G539" s="3">
         <v>43032</v>
@@ -17351,13 +17347,13 @@
         <v>575</v>
       </c>
       <c r="B540" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="C540" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="F540" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="G540" s="3">
         <v>43032</v>
@@ -17371,13 +17367,13 @@
         <v>576</v>
       </c>
       <c r="B541" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="C541" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="F541" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="G541" s="3">
         <v>43032</v>
@@ -17391,13 +17387,13 @@
         <v>577</v>
       </c>
       <c r="B542" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="C542" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="F542" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="G542" s="3">
         <v>43032</v>
@@ -17411,13 +17407,13 @@
         <v>578</v>
       </c>
       <c r="B543" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="C543" t="s">
         <v>93</v>
       </c>
       <c r="F543" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="G543" s="3">
         <v>43032</v>
@@ -17431,13 +17427,13 @@
         <v>579</v>
       </c>
       <c r="B544" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="C544" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="F544" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="G544" s="3">
         <v>43032</v>
@@ -17451,13 +17447,13 @@
         <v>580</v>
       </c>
       <c r="B545" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="C545" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="F545" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="G545" s="3">
         <v>43032</v>
@@ -17471,13 +17467,13 @@
         <v>581</v>
       </c>
       <c r="B546" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C546" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="F546" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="G546" s="3">
         <v>43032</v>
@@ -17491,10 +17487,10 @@
         <v>582</v>
       </c>
       <c r="B547" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="C547" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="D547" t="s">
         <v>12</v>
@@ -17503,7 +17499,7 @@
         <v>12</v>
       </c>
       <c r="F547" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G547" s="3">
         <v>43032</v>
@@ -17517,13 +17513,13 @@
         <v>583</v>
       </c>
       <c r="B548" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="C548" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="F548" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G548" s="3">
         <v>43032</v>
@@ -17537,13 +17533,13 @@
         <v>584</v>
       </c>
       <c r="B549" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C549" t="s">
         <v>143</v>
       </c>
       <c r="F549" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="G549" s="3">
         <v>43032</v>
@@ -17557,13 +17553,13 @@
         <v>585</v>
       </c>
       <c r="B550" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C550" t="s">
         <v>93</v>
       </c>
       <c r="F550" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="G550" s="3">
         <v>43032</v>
@@ -17577,13 +17573,13 @@
         <v>586</v>
       </c>
       <c r="B551" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="C551" t="s">
         <v>134</v>
       </c>
       <c r="F551" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="G551" s="3">
         <v>43032</v>
@@ -17597,13 +17593,13 @@
         <v>587</v>
       </c>
       <c r="B552" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="C552" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="F552" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="G552" s="3">
         <v>43032</v>
@@ -17617,13 +17613,13 @@
         <v>588</v>
       </c>
       <c r="B553" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C553" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F553" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G553" s="3">
         <v>43032</v>
@@ -17637,13 +17633,13 @@
         <v>589</v>
       </c>
       <c r="B554" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C554" t="s">
         <v>246</v>
       </c>
       <c r="F554" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G554" s="3">
         <v>43032</v>
@@ -17657,13 +17653,13 @@
         <v>590</v>
       </c>
       <c r="B555" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="C555" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="F555" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="G555" s="3">
         <v>43032</v>
@@ -17677,13 +17673,13 @@
         <v>591</v>
       </c>
       <c r="B556" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C556" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="F556" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="G556" s="3">
         <v>43032</v>
@@ -17697,13 +17693,13 @@
         <v>592</v>
       </c>
       <c r="B557" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C557" t="s">
         <v>364</v>
       </c>
       <c r="F557" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="G557" s="3">
         <v>43032</v>
@@ -17717,13 +17713,13 @@
         <v>593</v>
       </c>
       <c r="B558" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="C558" t="s">
         <v>143</v>
       </c>
       <c r="F558" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="G558" s="3">
         <v>43032</v>
@@ -17737,13 +17733,13 @@
         <v>594</v>
       </c>
       <c r="B559" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="C559" t="s">
         <v>413</v>
       </c>
       <c r="F559" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="G559" s="3">
         <v>43032</v>
@@ -17757,10 +17753,10 @@
         <v>595</v>
       </c>
       <c r="B560" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="C560" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D560" t="s">
         <v>12</v>
@@ -17769,7 +17765,7 @@
         <v>221</v>
       </c>
       <c r="F560" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="G560" s="3">
         <v>43032</v>
@@ -17783,13 +17779,13 @@
         <v>596</v>
       </c>
       <c r="B561" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="C561" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F561" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="G561" s="3">
         <v>43032</v>
@@ -17803,13 +17799,13 @@
         <v>597</v>
       </c>
       <c r="B562" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="C562" t="s">
         <v>557</v>
       </c>
       <c r="F562" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="G562" s="3">
         <v>43032</v>
@@ -17823,10 +17819,10 @@
         <v>598</v>
       </c>
       <c r="B563" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="C563" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="D563" t="s">
         <v>12</v>
@@ -17835,7 +17831,7 @@
         <v>12</v>
       </c>
       <c r="F563" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="G563" s="3">
         <v>43032</v>
@@ -17849,7 +17845,7 @@
         <v>599</v>
       </c>
       <c r="B564" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C564" t="s">
         <v>252</v>
@@ -17861,7 +17857,7 @@
         <v>12</v>
       </c>
       <c r="F564" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G564" s="3">
         <v>43032</v>
@@ -17875,7 +17871,7 @@
         <v>600</v>
       </c>
       <c r="B565" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C565" t="s">
         <v>36</v>
@@ -17887,7 +17883,7 @@
         <v>12</v>
       </c>
       <c r="F565" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="G565" s="3">
         <v>43032</v>
@@ -17901,13 +17897,13 @@
         <v>601</v>
       </c>
       <c r="B566" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="C566" t="s">
         <v>439</v>
       </c>
       <c r="F566" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="G566" s="3">
         <v>43032</v>
@@ -17921,10 +17917,10 @@
         <v>602</v>
       </c>
       <c r="B567" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="C567" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="D567" t="s">
         <v>12</v>
@@ -17933,7 +17929,7 @@
         <v>12</v>
       </c>
       <c r="F567" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="G567" s="3">
         <v>43032</v>
@@ -17947,13 +17943,13 @@
         <v>603</v>
       </c>
       <c r="B568" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="C568" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="F568" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="G568" s="3">
         <v>43032</v>
@@ -17967,13 +17963,13 @@
         <v>604</v>
       </c>
       <c r="B569" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="C569" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="F569" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="G569" s="3">
         <v>43032</v>
@@ -17987,13 +17983,13 @@
         <v>605</v>
       </c>
       <c r="B570" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="C570" t="s">
         <v>527</v>
       </c>
       <c r="F570" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="G570" s="3">
         <v>43032</v>
@@ -18007,13 +18003,13 @@
         <v>606</v>
       </c>
       <c r="B571" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="C571" t="s">
         <v>99</v>
       </c>
       <c r="F571" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="G571" s="3">
         <v>43032</v>
@@ -18027,13 +18023,13 @@
         <v>607</v>
       </c>
       <c r="B572" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="C572" t="s">
         <v>24</v>
       </c>
       <c r="F572" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="G572" s="3">
         <v>43032</v>
@@ -18047,13 +18043,13 @@
         <v>608</v>
       </c>
       <c r="B573" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="C573" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="F573" t="s">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="G573" s="3">
         <v>43032</v>
@@ -18067,13 +18063,13 @@
         <v>609</v>
       </c>
       <c r="B574" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="C574" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="F574" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="G574" s="3">
         <v>43032</v>
@@ -18087,10 +18083,10 @@
         <v>610</v>
       </c>
       <c r="B575" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="C575" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="D575" t="s">
         <v>12</v>
@@ -18099,7 +18095,7 @@
         <v>12</v>
       </c>
       <c r="F575" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="G575" s="3">
         <v>43032</v>
@@ -18125,7 +18121,7 @@
         <v>12</v>
       </c>
       <c r="F576" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="G576" s="3">
         <v>43032</v>
@@ -18142,10 +18138,10 @@
         <v>404</v>
       </c>
       <c r="C577" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="F577" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="G577" s="3">
         <v>43032</v>
@@ -18159,13 +18155,13 @@
         <v>613</v>
       </c>
       <c r="B578" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="C578" t="s">
         <v>490</v>
       </c>
       <c r="F578" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="G578" s="3">
         <v>43032</v>
@@ -18179,13 +18175,13 @@
         <v>614</v>
       </c>
       <c r="B579" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="C579" t="s">
         <v>328</v>
       </c>
       <c r="F579" t="s">
-        <v>1449</v>
+        <v>1450</v>
       </c>
       <c r="G579" s="3">
         <v>43032</v>
@@ -18199,7 +18195,7 @@
         <v>615</v>
       </c>
       <c r="B580" t="s">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="C580" t="s">
         <v>477</v>
@@ -18211,7 +18207,7 @@
         <v>12</v>
       </c>
       <c r="F580" t="s">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="G580" s="3">
         <v>43032</v>
@@ -18225,13 +18221,13 @@
         <v>616</v>
       </c>
       <c r="B581" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C581" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="F581" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="G581" s="3">
         <v>43032</v>
@@ -18245,13 +18241,13 @@
         <v>617</v>
       </c>
       <c r="B582" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="C582" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="F582" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="G582" s="3">
         <v>43032</v>
@@ -18265,10 +18261,10 @@
         <v>618</v>
       </c>
       <c r="B583" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C583" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D583" t="s">
         <v>12</v>
@@ -18277,7 +18273,7 @@
         <v>12</v>
       </c>
       <c r="F583" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="G583" s="3">
         <v>43032</v>
@@ -18291,13 +18287,13 @@
         <v>619</v>
       </c>
       <c r="B584" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
       <c r="C584" t="s">
         <v>333</v>
       </c>
       <c r="F584" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="G584" s="3">
         <v>43032</v>
@@ -18311,13 +18307,13 @@
         <v>620</v>
       </c>
       <c r="B585" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C585" t="s">
         <v>294</v>
       </c>
       <c r="F585" t="s">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="G585" s="3">
         <v>43032</v>
@@ -18331,13 +18327,13 @@
         <v>621</v>
       </c>
       <c r="B586" t="s">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="C586" t="s">
         <v>53</v>
       </c>
       <c r="F586" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="G586" s="3">
         <v>43032</v>
@@ -18354,10 +18350,10 @@
         <v>605</v>
       </c>
       <c r="C587" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F587" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="G587" s="3">
         <v>43032</v>
@@ -18371,13 +18367,13 @@
         <v>623</v>
       </c>
       <c r="B588" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="C588" t="s">
         <v>96</v>
       </c>
       <c r="F588" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="G588" s="3">
         <v>43032</v>
@@ -18391,10 +18387,10 @@
         <v>624</v>
       </c>
       <c r="B589" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C589" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="D589" t="s">
         <v>12</v>
@@ -18403,7 +18399,7 @@
         <v>12</v>
       </c>
       <c r="F589" t="s">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="G589" s="3">
         <v>43032</v>
@@ -18417,13 +18413,13 @@
         <v>626</v>
       </c>
       <c r="B590" t="s">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="C590" t="s">
         <v>33</v>
       </c>
       <c r="F590" t="s">
-        <v>1473</v>
+        <v>1474</v>
       </c>
       <c r="G590" s="3">
         <v>43032</v>
@@ -18437,13 +18433,13 @@
         <v>627</v>
       </c>
       <c r="B591" t="s">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="C591" t="s">
         <v>311</v>
       </c>
       <c r="F591" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="G591" s="3">
         <v>43032</v>
@@ -18457,10 +18453,10 @@
         <v>628</v>
       </c>
       <c r="B592" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="C592" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="D592" t="s">
         <v>12</v>
@@ -18469,7 +18465,7 @@
         <v>12</v>
       </c>
       <c r="F592" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
       <c r="G592" s="3">
         <v>43032</v>
@@ -18483,13 +18479,13 @@
         <v>629</v>
       </c>
       <c r="B593" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="C593" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="F593" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="G593" s="3">
         <v>43032</v>
@@ -18503,13 +18499,13 @@
         <v>630</v>
       </c>
       <c r="B594" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="C594" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="F594" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="G594" s="3">
         <v>43032</v>
@@ -18523,13 +18519,13 @@
         <v>631</v>
       </c>
       <c r="B595" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="C595" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="F595" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="G595" s="3">
         <v>43032</v>
@@ -18543,13 +18539,13 @@
         <v>633</v>
       </c>
       <c r="B596" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="C596" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="F596" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="G596" s="3">
         <v>43032</v>
@@ -18563,13 +18559,13 @@
         <v>634</v>
       </c>
       <c r="B597" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="C597" t="s">
         <v>519</v>
       </c>
       <c r="F597" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="G597" s="3">
         <v>43032</v>
@@ -18583,10 +18579,10 @@
         <v>635</v>
       </c>
       <c r="B598" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="C598" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="D598" t="s">
         <v>12</v>
@@ -18595,7 +18591,7 @@
         <v>12</v>
       </c>
       <c r="F598" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="G598" s="3">
         <v>43032</v>
@@ -18609,13 +18605,13 @@
         <v>636</v>
       </c>
       <c r="B599" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="C599" t="s">
         <v>230</v>
       </c>
       <c r="F599" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="G599" s="3">
         <v>43032</v>
@@ -18629,13 +18625,13 @@
         <v>637</v>
       </c>
       <c r="B600" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="C600" t="s">
         <v>53</v>
       </c>
       <c r="F600" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="G600" s="3">
         <v>43032</v>
@@ -18649,13 +18645,13 @@
         <v>638</v>
       </c>
       <c r="B601" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="C601" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="F601" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="G601" s="3">
         <v>43032</v>
@@ -18669,13 +18665,13 @@
         <v>639</v>
       </c>
       <c r="B602" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="C602" t="s">
         <v>230</v>
       </c>
       <c r="F602" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="G602" s="3">
         <v>43032</v>
@@ -18689,13 +18685,13 @@
         <v>640</v>
       </c>
       <c r="B603" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="C603" t="s">
         <v>230</v>
       </c>
       <c r="F603" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="G603" s="3">
         <v>43032</v>
@@ -18709,13 +18705,13 @@
         <v>641</v>
       </c>
       <c r="B604" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="C604" t="s">
         <v>209</v>
       </c>
       <c r="F604" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="G604" s="3">
         <v>43032</v>
@@ -18729,13 +18725,13 @@
         <v>642</v>
       </c>
       <c r="B605" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C605" t="s">
         <v>333</v>
       </c>
       <c r="F605" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="G605" s="3">
         <v>43032</v>
@@ -18749,13 +18745,13 @@
         <v>643</v>
       </c>
       <c r="B606" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C606" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="F606" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="G606" s="3">
         <v>43032</v>
@@ -18769,13 +18765,13 @@
         <v>644</v>
       </c>
       <c r="B607" t="s">
-        <v>1511</v>
+        <v>1512</v>
       </c>
       <c r="C607" t="s">
         <v>220</v>
       </c>
       <c r="F607" t="s">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="G607" s="3">
         <v>43032</v>
@@ -18789,13 +18785,13 @@
         <v>645</v>
       </c>
       <c r="B608" t="s">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="C608" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="F608" t="s">
-        <v>1515</v>
+        <v>1516</v>
       </c>
       <c r="G608" s="3">
         <v>43032</v>
@@ -18809,13 +18805,13 @@
         <v>646</v>
       </c>
       <c r="B609" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="C609" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F609" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="G609" s="3">
         <v>43032</v>
@@ -18829,13 +18825,13 @@
         <v>647</v>
       </c>
       <c r="B610" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="C610" t="s">
         <v>622</v>
       </c>
       <c r="F610" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="G610" s="3">
         <v>43032</v>
@@ -18849,13 +18845,13 @@
         <v>648</v>
       </c>
       <c r="B611" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="C611" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="F611" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="G611" s="3">
         <v>43032</v>
@@ -18869,13 +18865,13 @@
         <v>649</v>
       </c>
       <c r="B612" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="C612" t="s">
         <v>461</v>
       </c>
       <c r="F612" t="s">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="G612" s="3">
         <v>43032</v>
@@ -18889,13 +18885,13 @@
         <v>650</v>
       </c>
       <c r="B613" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C613" t="s">
         <v>333</v>
       </c>
       <c r="F613" t="s">
-        <v>1525</v>
+        <v>1526</v>
       </c>
       <c r="G613" s="3">
         <v>43032</v>
@@ -18909,7 +18905,7 @@
         <v>651</v>
       </c>
       <c r="B614" t="s">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="C614" t="s">
         <v>116</v>
@@ -18921,7 +18917,7 @@
         <v>221</v>
       </c>
       <c r="F614" t="s">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="G614" s="3">
         <v>43032</v>
@@ -18935,10 +18931,10 @@
         <v>652</v>
       </c>
       <c r="B615" t="s">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="C615" t="s">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="D615" t="s">
         <v>12</v>
@@ -18947,7 +18943,7 @@
         <v>12</v>
       </c>
       <c r="F615" t="s">
-        <v>1529</v>
+        <v>1530</v>
       </c>
       <c r="G615" s="3">
         <v>43032</v>
@@ -18961,7 +18957,7 @@
         <v>653</v>
       </c>
       <c r="B616" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="C616" t="s">
         <v>562</v>
@@ -18973,7 +18969,7 @@
         <v>12</v>
       </c>
       <c r="F616" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="G616" s="3">
         <v>43032</v>
@@ -18987,13 +18983,13 @@
         <v>654</v>
       </c>
       <c r="B617" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="C617" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="F617" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="G617" s="3">
         <v>43032</v>
@@ -19007,7 +19003,7 @@
         <v>655</v>
       </c>
       <c r="B618" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="C618" t="s">
         <v>186</v>
@@ -19019,7 +19015,7 @@
         <v>12</v>
       </c>
       <c r="F618" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="G618" s="3">
         <v>43032</v>
@@ -19033,13 +19029,13 @@
         <v>656</v>
       </c>
       <c r="B619" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="C619" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="F619" t="s">
-        <v>1539</v>
+        <v>1540</v>
       </c>
       <c r="G619" s="3">
         <v>43032</v>
@@ -19053,13 +19049,13 @@
         <v>657</v>
       </c>
       <c r="B620" t="s">
-        <v>1540</v>
+        <v>1541</v>
       </c>
       <c r="C620" t="s">
         <v>612</v>
       </c>
       <c r="F620" t="s">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="G620" s="3">
         <v>43032</v>
@@ -19073,13 +19069,13 @@
         <v>658</v>
       </c>
       <c r="B621" t="s">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="C621" t="s">
         <v>36</v>
       </c>
       <c r="F621" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
       <c r="G621" s="3">
         <v>43032</v>
@@ -19093,13 +19089,13 @@
         <v>659</v>
       </c>
       <c r="B622" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="C622" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F622" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="G622" s="3">
         <v>43032</v>
@@ -19113,13 +19109,13 @@
         <v>660</v>
       </c>
       <c r="B623" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="C623" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="F623" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="G623" s="3">
         <v>43032</v>
@@ -19133,13 +19129,13 @@
         <v>661</v>
       </c>
       <c r="B624" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="C624" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="F624" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="G624" s="3">
         <v>43032</v>
@@ -19153,13 +19149,13 @@
         <v>662</v>
       </c>
       <c r="B625" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C625" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="F625" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="G625" s="3">
         <v>43032</v>
@@ -19173,13 +19169,13 @@
         <v>663</v>
       </c>
       <c r="B626" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="C626" t="s">
         <v>173</v>
       </c>
       <c r="F626" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="G626" s="3">
         <v>43032</v>
@@ -19193,13 +19189,13 @@
         <v>664</v>
       </c>
       <c r="B627" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="C627" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="F627" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="G627" s="3">
         <v>43032</v>
@@ -19213,13 +19209,13 @@
         <v>665</v>
       </c>
       <c r="B628" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="C628" t="s">
         <v>322</v>
       </c>
       <c r="F628" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="G628" s="3">
         <v>43032</v>
@@ -19239,7 +19235,7 @@
         <v>230</v>
       </c>
       <c r="F629" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="G629" s="3">
         <v>43032</v>
@@ -19259,7 +19255,7 @@
         <v>319</v>
       </c>
       <c r="F630" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="G630" s="3">
         <v>43032</v>
@@ -19279,7 +19275,7 @@
         <v>173</v>
       </c>
       <c r="F631" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="G631" s="3">
         <v>43032</v>
@@ -19296,10 +19292,10 @@
         <v>86</v>
       </c>
       <c r="C632" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F632" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="G632" s="3">
         <v>43032</v>
@@ -19316,10 +19312,10 @@
         <v>86</v>
       </c>
       <c r="C633" t="s">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="F633" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="G633" s="3">
         <v>43032</v>
@@ -19333,13 +19329,13 @@
         <v>671</v>
       </c>
       <c r="B634" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="C634" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="F634" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="G634" s="3">
         <v>43032</v>
@@ -19353,13 +19349,13 @@
         <v>672</v>
       </c>
       <c r="B635" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="C635" t="s">
         <v>461</v>
       </c>
       <c r="F635" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="G635" s="3">
         <v>43032</v>
@@ -19373,13 +19369,13 @@
         <v>673</v>
       </c>
       <c r="B636" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="C636" t="s">
         <v>27</v>
       </c>
       <c r="F636" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="G636" s="3">
         <v>43032</v>
@@ -19393,13 +19389,13 @@
         <v>674</v>
       </c>
       <c r="B637" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="C637" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F637" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="G637" s="3">
         <v>43032</v>
@@ -19413,13 +19409,13 @@
         <v>675</v>
       </c>
       <c r="B638" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="C638" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="F638" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="G638" s="3">
         <v>43032</v>
@@ -19433,13 +19429,13 @@
         <v>676</v>
       </c>
       <c r="B639" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C639" t="s">
         <v>36</v>
       </c>
       <c r="F639" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="G639" s="3">
         <v>43032</v>
@@ -19453,13 +19449,13 @@
         <v>677</v>
       </c>
       <c r="B640" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="C640" t="s">
         <v>164</v>
       </c>
       <c r="F640" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="G640" s="3">
         <v>43032</v>
@@ -19473,13 +19469,13 @@
         <v>678</v>
       </c>
       <c r="B641" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="C641" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="F641" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="G641" s="3">
         <v>43032</v>
@@ -19493,13 +19489,13 @@
         <v>679</v>
       </c>
       <c r="B642" t="s">
-        <v>1585</v>
+        <v>1586</v>
       </c>
       <c r="C642" t="s">
         <v>209</v>
       </c>
       <c r="F642" t="s">
-        <v>1586</v>
+        <v>1587</v>
       </c>
       <c r="G642" s="3">
         <v>43032</v>
@@ -19513,13 +19509,13 @@
         <v>680</v>
       </c>
       <c r="B643" t="s">
-        <v>1587</v>
+        <v>1588</v>
       </c>
       <c r="C643" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="F643" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="G643" s="3">
         <v>43032</v>
@@ -19533,13 +19529,13 @@
         <v>681</v>
       </c>
       <c r="B644" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="C644" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F644" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="G644" s="3">
         <v>43032</v>
@@ -19553,13 +19549,13 @@
         <v>682</v>
       </c>
       <c r="B645" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="C645" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="F645" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="G645" s="3">
         <v>43032</v>
@@ -19573,13 +19569,13 @@
         <v>683</v>
       </c>
       <c r="B646" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="C646" t="s">
         <v>461</v>
       </c>
       <c r="F646" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="G646" s="3">
         <v>43032</v>
@@ -19593,13 +19589,13 @@
         <v>684</v>
       </c>
       <c r="B647" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="C647" t="s">
         <v>214</v>
       </c>
       <c r="F647" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="G647" s="3">
         <v>43032</v>
@@ -19613,13 +19609,13 @@
         <v>685</v>
       </c>
       <c r="B648" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="C648" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="F648" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="G648" s="3">
         <v>43032</v>
@@ -19633,13 +19629,13 @@
         <v>686</v>
       </c>
       <c r="B649" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="C649" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="F649" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="G649" s="3">
         <v>43032</v>
@@ -19653,10 +19649,10 @@
         <v>687</v>
       </c>
       <c r="B650" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="C650" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="D650" t="s">
         <v>12</v>
@@ -19665,7 +19661,7 @@
         <v>12</v>
       </c>
       <c r="F650" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="G650" s="3">
         <v>43032</v>
@@ -19679,13 +19675,13 @@
         <v>688</v>
       </c>
       <c r="B651" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="C651" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F651" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="G651" s="3">
         <v>43032</v>
@@ -19699,13 +19695,13 @@
         <v>689</v>
       </c>
       <c r="B652" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="C652" t="s">
         <v>289</v>
       </c>
       <c r="F652" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="G652" s="3">
         <v>43032</v>
@@ -19719,7 +19715,7 @@
         <v>690</v>
       </c>
       <c r="B653" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="C653" t="s">
         <v>36</v>
@@ -19731,7 +19727,7 @@
         <v>12</v>
       </c>
       <c r="F653" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="G653" s="3">
         <v>43032</v>
@@ -19745,13 +19741,13 @@
         <v>691</v>
       </c>
       <c r="B654" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="C654" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="F654" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="G654" s="3">
         <v>43032</v>
@@ -19765,13 +19761,13 @@
         <v>692</v>
       </c>
       <c r="B655" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="C655" t="s">
         <v>186</v>
       </c>
       <c r="F655" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="G655" s="3">
         <v>43032</v>
@@ -19785,13 +19781,13 @@
         <v>693</v>
       </c>
       <c r="B656" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="C656" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
       <c r="F656" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="G656" s="3">
         <v>43032</v>
@@ -19805,13 +19801,13 @@
         <v>694</v>
       </c>
       <c r="B657" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="C657" t="s">
         <v>289</v>
       </c>
       <c r="F657" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="G657" s="3">
         <v>43032</v>
@@ -19825,13 +19821,13 @@
         <v>695</v>
       </c>
       <c r="B658" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="C658" t="s">
         <v>143</v>
       </c>
       <c r="F658" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="G658" s="3">
         <v>43032</v>
@@ -19845,13 +19841,13 @@
         <v>696</v>
       </c>
       <c r="B659" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C659" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="F659" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="G659" s="3">
         <v>43032</v>
@@ -19865,13 +19861,13 @@
         <v>697</v>
       </c>
       <c r="B660" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="C660" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="F660" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="G660" s="3">
         <v>43032</v>
@@ -19885,13 +19881,13 @@
         <v>698</v>
       </c>
       <c r="B661" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="C661" t="s">
         <v>102</v>
       </c>
       <c r="F661" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="G661" s="3">
         <v>43032</v>
@@ -19905,13 +19901,13 @@
         <v>699</v>
       </c>
       <c r="B662" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="C662" t="s">
         <v>102</v>
       </c>
       <c r="F662" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="G662" s="3">
         <v>43032</v>
@@ -19925,10 +19921,10 @@
         <v>700</v>
       </c>
       <c r="B663" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="C663" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="D663" t="s">
         <v>12</v>
@@ -19937,7 +19933,7 @@
         <v>12</v>
       </c>
       <c r="F663" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="G663" s="3">
         <v>43032</v>
@@ -19951,13 +19947,13 @@
         <v>701</v>
       </c>
       <c r="B664" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="C664" t="s">
         <v>294</v>
       </c>
       <c r="F664" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="G664" s="3">
         <v>43032</v>
@@ -19971,19 +19967,19 @@
         <v>702</v>
       </c>
       <c r="B665" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
       <c r="C665" t="s">
         <v>93</v>
       </c>
       <c r="D665" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="E665" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="F665" t="s">
-        <v>1641</v>
+        <v>1642</v>
       </c>
       <c r="G665" s="3">
         <v>43032</v>
@@ -19997,13 +19993,13 @@
         <v>703</v>
       </c>
       <c r="B666" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
       <c r="C666" t="s">
         <v>294</v>
       </c>
       <c r="F666" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="G666" s="3">
         <v>43032</v>
@@ -20017,13 +20013,13 @@
         <v>704</v>
       </c>
       <c r="B667" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="C667" t="s">
         <v>46</v>
       </c>
       <c r="F667" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="G667" s="3">
         <v>43032</v>
@@ -20037,13 +20033,13 @@
         <v>705</v>
       </c>
       <c r="B668" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
       <c r="C668" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F668" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="G668" s="3">
         <v>43032</v>
@@ -20057,10 +20053,10 @@
         <v>706</v>
       </c>
       <c r="B669" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="C669" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="D669" t="s">
         <v>12</v>
@@ -20069,7 +20065,7 @@
         <v>12</v>
       </c>
       <c r="F669" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="G669" s="3">
         <v>43032</v>
@@ -20083,10 +20079,10 @@
         <v>707</v>
       </c>
       <c r="B670" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="C670" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="D670" t="s">
         <v>12</v>
@@ -20095,7 +20091,7 @@
         <v>12</v>
       </c>
       <c r="F670" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="G670" s="3">
         <v>43032</v>
@@ -20109,10 +20105,10 @@
         <v>708</v>
       </c>
       <c r="B671" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="C671" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="D671" t="s">
         <v>12</v>
@@ -20121,7 +20117,7 @@
         <v>12</v>
       </c>
       <c r="F671" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="G671" s="3">
         <v>43032</v>
@@ -20141,7 +20137,7 @@
         <v>294</v>
       </c>
       <c r="F672" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
       <c r="G672" s="3">
         <v>43032</v>
@@ -20161,7 +20157,7 @@
         <v>328</v>
       </c>
       <c r="F673" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="G673" s="3">
         <v>43032</v>
@@ -20175,7 +20171,7 @@
         <v>711</v>
       </c>
       <c r="B674" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="C674" t="s">
         <v>173</v>
@@ -20187,7 +20183,7 @@
         <v>221</v>
       </c>
       <c r="F674" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
       <c r="G674" s="3">
         <v>43032</v>
@@ -20204,10 +20200,10 @@
         <v>179</v>
       </c>
       <c r="C675" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="F675" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="G675" s="3">
         <v>43032</v>
@@ -20221,13 +20217,13 @@
         <v>713</v>
       </c>
       <c r="B676" t="s">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="C676" t="s">
         <v>99</v>
       </c>
       <c r="F676" t="s">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="G676" s="3">
         <v>43032</v>
@@ -20241,13 +20237,13 @@
         <v>714</v>
       </c>
       <c r="B677" t="s">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="C677" t="s">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="F677" t="s">
-        <v>1666</v>
+        <v>1667</v>
       </c>
       <c r="G677" s="3">
         <v>43032</v>
@@ -20261,13 +20257,13 @@
         <v>715</v>
       </c>
       <c r="B678" t="s">
-        <v>1667</v>
+        <v>1668</v>
       </c>
       <c r="C678" t="s">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="F678" t="s">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="G678" s="3">
         <v>43032</v>
@@ -20281,13 +20277,13 @@
         <v>716</v>
       </c>
       <c r="B679" t="s">
-        <v>1670</v>
+        <v>1671</v>
       </c>
       <c r="C679" t="s">
         <v>53</v>
       </c>
       <c r="F679" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="G679" s="3">
         <v>43032</v>
@@ -20301,10 +20297,10 @@
         <v>717</v>
       </c>
       <c r="B680" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="C680" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="D680" t="s">
         <v>12</v>
@@ -20313,7 +20309,7 @@
         <v>12</v>
       </c>
       <c r="F680" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="G680" s="3">
         <v>43032</v>
@@ -20333,7 +20329,7 @@
         <v>143</v>
       </c>
       <c r="F681" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
       <c r="G681" s="3">
         <v>43032</v>
@@ -20353,7 +20349,7 @@
         <v>328</v>
       </c>
       <c r="F682" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="G682" s="3">
         <v>43032</v>
@@ -20367,13 +20363,13 @@
         <v>720</v>
       </c>
       <c r="B683" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="C683" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="F683" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="G683" s="3">
         <v>43032</v>
@@ -20387,13 +20383,13 @@
         <v>721</v>
       </c>
       <c r="B684" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="C684" t="s">
         <v>439</v>
       </c>
       <c r="F684" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="G684" s="3">
         <v>43032</v>
@@ -20407,13 +20403,13 @@
         <v>722</v>
       </c>
       <c r="B685" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="C685" t="s">
         <v>93</v>
       </c>
       <c r="F685" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="G685" s="3">
         <v>43032</v>
@@ -20427,13 +20423,13 @@
         <v>723</v>
       </c>
       <c r="B686" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="C686" t="s">
         <v>143</v>
       </c>
       <c r="F686" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="G686" s="3">
         <v>43032</v>
@@ -20447,13 +20443,13 @@
         <v>724</v>
       </c>
       <c r="B687" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="C687" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="F687" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="G687" s="3">
         <v>43032</v>
@@ -20467,13 +20463,13 @@
         <v>725</v>
       </c>
       <c r="B688" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="C688" t="s">
         <v>461</v>
       </c>
       <c r="F688" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="G688" s="3">
         <v>43032</v>
@@ -20487,13 +20483,13 @@
         <v>726</v>
       </c>
       <c r="B689" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="C689" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="F689" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="G689" s="3">
         <v>43032</v>
@@ -20507,13 +20503,13 @@
         <v>727</v>
       </c>
       <c r="B690" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="C690" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="F690" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="G690" s="3">
         <v>43032</v>
@@ -20527,10 +20523,10 @@
         <v>728</v>
       </c>
       <c r="B691" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="C691" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D691" t="s">
         <v>12</v>
@@ -20539,7 +20535,7 @@
         <v>12</v>
       </c>
       <c r="F691" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="G691" s="3">
         <v>43032</v>
@@ -20553,13 +20549,13 @@
         <v>729</v>
       </c>
       <c r="B692" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="C692" t="s">
         <v>167</v>
       </c>
       <c r="F692" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="G692" s="3">
         <v>43032</v>
@@ -20573,13 +20569,13 @@
         <v>730</v>
       </c>
       <c r="B693" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="C693" t="s">
         <v>134</v>
       </c>
       <c r="F693" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="G693" s="3">
         <v>43032</v>
@@ -20593,13 +20589,13 @@
         <v>731</v>
       </c>
       <c r="B694" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="C694" t="s">
         <v>252</v>
       </c>
       <c r="F694" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="G694" s="3">
         <v>43032</v>
@@ -20613,13 +20609,13 @@
         <v>732</v>
       </c>
       <c r="B695" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="C695" t="s">
         <v>322</v>
       </c>
       <c r="F695" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="G695" s="3">
         <v>43032</v>
@@ -20633,13 +20629,13 @@
         <v>733</v>
       </c>
       <c r="B696" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="C696" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="F696" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="G696" s="3">
         <v>43032</v>
@@ -20653,13 +20649,13 @@
         <v>734</v>
       </c>
       <c r="B697" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="C697" t="s">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="F697" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
       <c r="G697" s="3">
         <v>43032</v>
@@ -20673,10 +20669,10 @@
         <v>735</v>
       </c>
       <c r="B698" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="C698" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="D698" t="s">
         <v>12</v>
@@ -20685,7 +20681,7 @@
         <v>12</v>
       </c>
       <c r="F698" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="G698" s="3">
         <v>43032</v>
@@ -20699,13 +20695,13 @@
         <v>736</v>
       </c>
       <c r="B699" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="C699" t="s">
         <v>130</v>
       </c>
       <c r="F699" t="s">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="G699" s="3">
         <v>43032</v>
@@ -20719,13 +20715,13 @@
         <v>737</v>
       </c>
       <c r="B700" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C700" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="F700" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="G700" s="3">
         <v>43032</v>
@@ -20739,13 +20735,13 @@
         <v>738</v>
       </c>
       <c r="B701" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="C701" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="F701" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="G701" s="3">
         <v>43032</v>
@@ -20759,13 +20755,13 @@
         <v>739</v>
       </c>
       <c r="B702" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="C702" t="s">
         <v>413</v>
       </c>
       <c r="F702" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="G702" s="3">
         <v>43032</v>
@@ -20779,13 +20775,13 @@
         <v>740</v>
       </c>
       <c r="B703" t="s">
-        <v>1722</v>
+        <v>1723</v>
       </c>
       <c r="C703" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="F703" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="G703" s="3">
         <v>43032</v>
@@ -20799,10 +20795,10 @@
         <v>741</v>
       </c>
       <c r="B704" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="C704" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="D704" t="s">
         <v>12</v>
@@ -20811,7 +20807,7 @@
         <v>12</v>
       </c>
       <c r="F704" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="G704" s="3">
         <v>43032</v>
@@ -20825,13 +20821,13 @@
         <v>742</v>
       </c>
       <c r="B705" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="C705" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
       <c r="F705" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="G705" s="3">
         <v>43032</v>
@@ -20845,13 +20841,13 @@
         <v>743</v>
       </c>
       <c r="B706" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="C706" t="s">
         <v>53</v>
       </c>
       <c r="F706" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="G706" s="3">
         <v>43032</v>
@@ -20865,13 +20861,13 @@
         <v>744</v>
       </c>
       <c r="B707" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="C707" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="F707" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="G707" s="3">
         <v>43032</v>
@@ -20885,13 +20881,13 @@
         <v>745</v>
       </c>
       <c r="B708" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="C708" t="s">
         <v>230</v>
       </c>
       <c r="F708" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="G708" s="3">
         <v>43032</v>
@@ -20905,10 +20901,10 @@
         <v>746</v>
       </c>
       <c r="B709" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="C709" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="D709" t="s">
         <v>12</v>
@@ -20917,7 +20913,7 @@
         <v>12</v>
       </c>
       <c r="F709" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="G709" s="3">
         <v>43032</v>
@@ -20931,13 +20927,13 @@
         <v>747</v>
       </c>
       <c r="B710" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="C710" t="s">
         <v>246</v>
       </c>
       <c r="F710" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="G710" s="3">
         <v>43032</v>
@@ -20951,10 +20947,10 @@
         <v>748</v>
       </c>
       <c r="B711" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="C711" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="D711" t="s">
         <v>12</v>
@@ -20963,7 +20959,7 @@
         <v>221</v>
       </c>
       <c r="F711" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="G711" s="3">
         <v>43032</v>
@@ -20977,13 +20973,13 @@
         <v>749</v>
       </c>
       <c r="B712" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C712" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="F712" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="G712" s="3">
         <v>43032</v>
@@ -20997,13 +20993,13 @@
         <v>750</v>
       </c>
       <c r="B713" t="s">
-        <v>1747</v>
+        <v>1748</v>
       </c>
       <c r="C713" t="s">
         <v>206</v>
       </c>
       <c r="F713" t="s">
-        <v>1748</v>
+        <v>1749</v>
       </c>
       <c r="G713" s="3">
         <v>43032</v>
@@ -21017,13 +21013,13 @@
         <v>751</v>
       </c>
       <c r="B714" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="C714" t="s">
         <v>36</v>
       </c>
       <c r="F714" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
       <c r="G714" s="3">
         <v>43032</v>
@@ -21037,13 +21033,13 @@
         <v>752</v>
       </c>
       <c r="B715" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C715" t="s">
         <v>322</v>
       </c>
       <c r="F715" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="G715" s="3">
         <v>43032</v>
@@ -21057,13 +21053,13 @@
         <v>753</v>
       </c>
       <c r="B716" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="C716" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="F716" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="G716" s="3">
         <v>43032</v>
@@ -21077,10 +21073,10 @@
         <v>754</v>
       </c>
       <c r="B717" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="C717" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="D717" t="s">
         <v>12</v>
@@ -21089,7 +21085,7 @@
         <v>12</v>
       </c>
       <c r="F717" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="G717" s="3">
         <v>43032</v>
@@ -21103,13 +21099,13 @@
         <v>755</v>
       </c>
       <c r="B718" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="C718" t="s">
         <v>557</v>
       </c>
       <c r="F718" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="G718" s="3">
         <v>43032</v>
@@ -21123,10 +21119,10 @@
         <v>756</v>
       </c>
       <c r="B719" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="C719" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D719" t="s">
         <v>12</v>
@@ -21135,7 +21131,7 @@
         <v>221</v>
       </c>
       <c r="F719" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="G719" s="3">
         <v>43032</v>
@@ -21149,13 +21145,13 @@
         <v>757</v>
       </c>
       <c r="B720" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="C720" t="s">
         <v>30</v>
       </c>
       <c r="F720" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="G720" s="3">
         <v>43032</v>
@@ -21169,13 +21165,13 @@
         <v>758</v>
       </c>
       <c r="B721" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="C721" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="F721" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="G721" s="3">
         <v>43032</v>
@@ -21189,10 +21185,10 @@
         <v>759</v>
       </c>
       <c r="B722" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C722" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="D722" t="s">
         <v>12</v>
@@ -21201,7 +21197,7 @@
         <v>12</v>
       </c>
       <c r="F722" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="G722" s="3">
         <v>43032</v>
@@ -21215,7 +21211,7 @@
         <v>760</v>
       </c>
       <c r="B723" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="C723" t="s">
         <v>46</v>
@@ -21227,7 +21223,7 @@
         <v>12</v>
       </c>
       <c r="F723" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="G723" s="3">
         <v>43032</v>
@@ -21241,13 +21237,13 @@
         <v>761</v>
       </c>
       <c r="B724" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="C724" t="s">
         <v>328</v>
       </c>
       <c r="F724" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="G724" s="3">
         <v>43032</v>
@@ -21261,13 +21257,13 @@
         <v>762</v>
       </c>
       <c r="B725" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="C725" t="s">
         <v>429</v>
       </c>
       <c r="F725" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="G725" s="3">
         <v>43032</v>
@@ -21281,13 +21277,13 @@
         <v>763</v>
       </c>
       <c r="B726" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="C726" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="F726" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="G726" s="3">
         <v>43032</v>
@@ -21301,13 +21297,13 @@
         <v>764</v>
       </c>
       <c r="B727" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="C727" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="F727" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="G727" s="3">
         <v>43062</v>
@@ -21321,13 +21317,13 @@
         <v>765</v>
       </c>
       <c r="B728" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="C728" t="s">
         <v>464</v>
       </c>
       <c r="F728" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="G728" s="3">
         <v>43466</v>
@@ -21341,13 +21337,13 @@
         <v>766</v>
       </c>
       <c r="B729" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C729" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="F729" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="G729" s="3">
         <v>43472</v>
@@ -21361,13 +21357,13 @@
         <v>767</v>
       </c>
       <c r="B730" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="C730" t="s">
         <v>8</v>
       </c>
       <c r="F730" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="G730" s="3">
         <v>43647</v>
@@ -21381,13 +21377,13 @@
         <v>769</v>
       </c>
       <c r="B731" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C731" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="F731" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="G731" s="4">
         <v>43648</v>
@@ -21401,10 +21397,10 @@
         <v>770</v>
       </c>
       <c r="B732" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="C732" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="D732" t="s">
         <v>12</v>
@@ -21413,7 +21409,7 @@
         <v>12</v>
       </c>
       <c r="F732" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="G732" s="3">
         <v>43770</v>
@@ -21427,13 +21423,13 @@
         <v>771</v>
       </c>
       <c r="B733" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="C733" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="F733" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="G733" s="3">
         <v>43770</v>
@@ -21447,13 +21443,13 @@
         <v>772</v>
       </c>
       <c r="B734" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="C734" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="F734" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="G734" s="4">
         <v>43784</v>
@@ -21467,13 +21463,13 @@
         <v>773</v>
       </c>
       <c r="B735" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="C735" t="s">
         <v>421</v>
       </c>
       <c r="F735" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="G735" s="3">
         <v>43802</v>
@@ -21490,7 +21486,7 @@
         <v>310</v>
       </c>
       <c r="C736" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D736" t="s">
         <v>12</v>
@@ -21499,7 +21495,7 @@
         <v>12</v>
       </c>
       <c r="F736" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="G736" s="3">
         <v>43802</v>
@@ -21513,13 +21509,13 @@
         <v>775</v>
       </c>
       <c r="B737" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="C737" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="F737" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="G737" s="3">
         <v>43808</v>
@@ -21533,13 +21529,13 @@
         <v>776</v>
       </c>
       <c r="B738" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="C738" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="F738" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="G738" s="3">
         <v>43865</v>
@@ -21553,13 +21549,13 @@
         <v>777</v>
       </c>
       <c r="B739" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="C739" t="s">
         <v>439</v>
       </c>
       <c r="F739" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="G739" s="3">
         <v>43949</v>
@@ -21579,7 +21575,7 @@
         <v>280</v>
       </c>
       <c r="F740" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="G740" s="3">
         <v>43962</v>
@@ -21593,13 +21589,13 @@
         <v>779</v>
       </c>
       <c r="B741" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="C741" t="s">
         <v>30</v>
       </c>
       <c r="F741" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="G741" s="3">
         <v>44125</v>
@@ -21613,13 +21609,13 @@
         <v>780</v>
       </c>
       <c r="B742" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="C742" t="s">
         <v>46</v>
       </c>
       <c r="F742" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="G742" s="3">
         <v>44146</v>
@@ -21633,10 +21629,10 @@
         <v>781</v>
       </c>
       <c r="B743" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="C743" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="D743" t="s">
         <v>12</v>
@@ -21645,7 +21641,7 @@
         <v>12</v>
       </c>
       <c r="F743" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="G743" s="3">
         <v>44147</v>
@@ -21659,13 +21655,13 @@
         <v>782</v>
       </c>
       <c r="B744" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="C744" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="F744" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="G744" s="3">
         <v>44277</v>
@@ -21679,13 +21675,13 @@
         <v>783</v>
       </c>
       <c r="B745" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="C745" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="F745" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="G745" s="3">
         <v>44293</v>
@@ -21699,10 +21695,10 @@
         <v>784</v>
       </c>
       <c r="B746" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="C746" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="D746" t="s">
         <v>12</v>
@@ -21711,7 +21707,7 @@
         <v>12</v>
       </c>
       <c r="F746" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="G746" s="3">
         <v>44317</v>
@@ -21725,13 +21721,13 @@
         <v>785</v>
       </c>
       <c r="B747" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="C747" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="F747" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="G747" s="3">
         <v>44348</v>
@@ -21745,13 +21741,13 @@
         <v>786</v>
       </c>
       <c r="B748" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="C748" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F748" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="G748" s="3">
         <v>44378</v>
@@ -21765,13 +21761,13 @@
         <v>787</v>
       </c>
       <c r="B749" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="C749" t="s">
         <v>308</v>
       </c>
       <c r="F749" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="G749" s="3">
         <v>44397</v>
@@ -21785,13 +21781,13 @@
         <v>788</v>
       </c>
       <c r="B750" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="C750" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="F750" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="G750" s="3">
         <v>44427</v>
@@ -21805,13 +21801,13 @@
         <v>789</v>
       </c>
       <c r="B751" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="C751" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="F751" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="G751" s="3">
         <v>44470</v>
